--- a/src/pro/pro.xlsx
+++ b/src/pro/pro.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3060" yWindow="840" windowWidth="30160" windowHeight="17640" tabRatio="500"/>
+    <workbookView xWindow="4380" yWindow="2340" windowWidth="30160" windowHeight="17640" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="1.C++" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="31">
   <si>
     <t>title</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -90,7 +90,355 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>React Native布局详细"指南"</t>
+    <t>Lua中基本类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lua的特性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">轻量级: 它用标准C语言编写并以源代码形式开放，编译后仅仅一百余K，可以很方便的嵌入别的程序里。
+可扩展: Lua提供了非常易于使用的扩展接口和机制：由宿主语言(通常是C或C++)提供这些功能，Lua可以使用它们，就像是本来就内置的功能一样。
+其它特性:
+支持面向过程(procedure-oriented)编程和函数式编程(functional programming)；
+自动内存管理；只提供了一种通用类型的表（table），用它可以实现数组，哈希表，集合，对象；
+语言内置模式匹配；闭包(closure)；函数也可以看做一个值；提供多线程（协同进程，并非操作系统所支持的线程）支持；
+通过闭包和table可以很方便地支持面向对象编程所需要的一些关键机制，比如数据抽象，虚函数，继承和重载等。
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lua是动态类型语言，变量不要类型定义,只需要为变量赋值。 值可以存储在变量中，作为参数传递或结果返回。
+一共8种类型
+nil,number,string,boolean,table,userdata,function,thread
+其中：Lua 把 false 和 nil 看作是"假"，其他的都为"真"</t>
+    <rPh sb="53" eb="54">
+      <t>yi'gong</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>zhong</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>lei'xing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lua元表(Metatable)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在 Lua table 中我们可以访问对应的key来得到value值，但是却无法对两个 table 进行操作。
+因此 Lua 提供了元表(Metatable)，允许我们改变table的行为，每个行为关联了对应的元方法。
+例如，使用元表我们可以定义Lua如何计算两个table的相加操作a+b。
+当Lua试图对两个表进行相加时，先检查两者之一是否有元表，之后检查是否有一个叫"__add"的字段，若找到，则调用对应的值。"__add"等即时字段，其对应的值（往往是一个函数或是table）就是"元方法"。
+有两个很重要的函数来处理元表：
+setmetatable(table,metatable):对指定table设置元表(metatable)，如果元表(metatable)中存在__metatable键值，setmetatable会失败 。
+getmetatable(table):返回对象的元表(metatable)。
+__index 元方法
+这是 metatable 最常用的键。
+当你通过键来访问 table 的时候，如果这个键没有值，那么Lua就会寻找该table的metatable（假定有metatable）中的__index 键。如果__index包含一个表格，Lua会在表格中查找相应的键。
+Lua查找一个表元素时的规则，其实就是如下3个步骤:
+1.在表中查找，如果找到，返回该元素，找不到则继续
+2.判断该表是否有元表，如果没有元表，返回nil，有元表则继续。
+3.判断元表有没有__index方法，如果__index方法为nil，则返回nil；如果__index方法是一个表，则重复1、2、3；如果__index方法是一个函数，则返回该函数的返回值。
+例如
+mytable = setmetatable({key1 = "value1"}, {
+  __index = function(mytable, key)
+    if key == "key2" then
+      return "metatablevalue"
+    else
+      return nil
+    end
+  end
+})
+print(mytable.key1,mytable.key2)
+实例输出结果为：
+value1    metatablevalue
+常见的元方法
+__newindex 元方法
+__newindex 元方法用来对表更新，__index则用来对表访问 。
+当你给表的一个缺少的索引赋值，解释器就会查找__newindex 元方法：如果存在则调用这个函数而不进行赋值操作。
+__add，__sub，__mul，__div，__mod，__unm，__concat，__eq，__lt，__le 这是一批运算符
+__call 元方法
+__call 元方法在 Lua 调用一个值时调用
+__tostring 元方法
+__tostring 元方法用于修改表的输出行为</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lua闭包</t>
+    <rPh sb="3" eb="4">
+      <t>bi'bao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C和lua的互相调用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lua热更新机制的实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lua 协同程序(coroutine)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lua的gc机制简述</t>
+  </si>
+  <si>
+    <t>在Lua5.0及其更早的版本中，Lua的GC是一次性不可被打断的过程，使用的++Mark算法是双色标记算法(Two color mark)++，这样系统中对象的非黑即白，要么被引用，要么不被引用，这会带来一个问题：在GC的过程中如果新加入对象，这时候新加入的对象无论怎么设置都会带来问题，如果设置为白色，则如果处于回收阶段，则该对象会在没有遍历其关联对象的情况下被回收；如果标记为黑色，那么没有被扫描就被标记为不可回收，是不正确的。
+为了降低一次性回收带来的性能问题以及双色算法的问题，在Lua5.1后，Lua都采用分布回收以及++三色增量标记清除算法（Tri-color incremental mark and sweep）++
+将所有对象分成三个状态：
+White状态，也就是待访问状态。表示对象还没有被垃圾回收的标记过程访问到。==（白色又分为White0和White1，主要为了解决上面所说到的在GC过程中新加入的对象的处理问题）==
+Gray状态，也就是待扫描状态。表示对象已经被垃圾回收访问到了，但是对象本身对于其他对象的引用还没有进行遍历访问。
+Black状态，也就是已扫描状态。表示对象已经被访问到了，并且也已经遍历了对象本身对其他对象的引用。
+GC流程：
+每个新创建的对象颜色设置为White
+//初始化阶段
+遍历root节点中引用的对象，从白色置为灰色，并且放入到Gray节点列表中
+//标记阶段
+while(Gray集合不为空,并且没有超过本次计算量的上限)：
+从中取出一个对象，将其置为Black
+遍历这个对象关联的其他所有对象：
+if 为White
+标记为Gray，加入到Gray链表中
+//回收阶段
+遍历所有对象：
+if 为White，
+没有被引用的对象，执行回收
+else
+重新塞入到对象链表中，等待下一轮GC
+在每个步骤之间，由于程序可以正常执行，所以会破坏当前对象之间的引用关系。black对象表示已经被扫描的对象，所以他应该不可能引用到一个white对象。当程序的改变使得一个black对象引用到一个white对象时，就会造成错误。解决这个问题的办法就是设置barrier。barrier在程序正常运行过程中，监控所有的引用改变。如果一个black对象需要引用一个white对象，存在两种处理办法：
+将white对象设置成gray，并添加到gray列表中等待扫描。这样等于帮助整个GC的标识过程向前推进了一步。
+将black对象改回成gray，并添加到gray列表中等待扫描。这样等于使整个GC的标识过程后退了一步。
+这种垃圾回收方式被称为"++Incremental Garbage Collection++"(简称为"IGC"，Lua所采用的就是这种方法。使用"IGC"并不是没有代价的。IGC所检测出来的垃圾对象集合比实际的集合要小，也就是说，有些在GC过程中变成垃圾的对象，有可能在本轮GC中检测不到。不过，这些残余的垃圾对象一定会在下一轮GC被检测出来，不会造成泄露。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>热更新原理
+Lua的 require(modelname) 把一个lua文件加载存放到package.loaded[modelname]。
+当我们加载一个模块的时候，会先判断是否在package.loaded中已存在，若存在则返回改模块，不存在才会加载(loadfile)，防止重复加载。
+package.loaded是一个Table，其中包含了全局表_G、默认加载的模块(string, debug, package, io, os, table, math, coroutine)和用户加载的模块。
+Lua热更新
+最简单粗暴的热更新就是将package.loaded[modelname]的值置为nil，强制重新加载：
+function reload_module(module_name)
+    package.loaded[modulename] = nil
+    require(modulename)
+end
+这样做虽然能完成热更，但问题是已经引用了该模块的地方不会得到更新， 因此我们需要将引用该模块的地方的值也做对应的更新。
+function reload_module(module_name)
+    local old_module = _G[module_name]
+    package.loaded[module_name] = nil
+    require (module_name)
+    local new_module = _G[module_name]
+    for k, v in pairs(new_module) do
+        old_module[k] = v
+    end
+    package.loaded[module_name] = old_module
+end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指针和引用的区别是什么</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、指针是一个实体，需要分配内存空间（你创建一个指针变量int *p，那么这个p必须在内存中占有一个单元格（其实是4个字节），它所占的单元格里面可以填一个地址，来表示它指向哪里。）。引用只是变量的别名，不需要分配内存空间（引用是对已经存在的一个单元格来说的，单元格已经存在了，引用就是对单元格再起一个名字，这个引用呢，不再在内存中存储了。
+2、引用在定义的时候必须进行初始化，并且不能够改变（引用是针对已经存在的某个单元格进行二次命名，所以单元格必须先存在）。指针在定义的时候不一定要初始化，并且指向的空间可变。（注：不能有引用的值不能为NULL）
+3、有多级指针，但是没有多级引用，只能有一级引用。
+4、指针和引用的自增运算结果不一样。（指针是指向下一个空间，引用时引用的变量值加1）
+5、sizeof 引用得到的是所指向的变量（对象）的大小，而sizeof 指针得到的是指针本身的大小。
+6、引用访问一个变量是直接访问，而指针访问一个变量是间接访问。
+7、引用没有const，指针有const，const的指针不可变
+8、引用不能为空，指针可以为空
+9、引用是类型安全的，而指针不是 (引用比指针多了类型检查）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智能指针和普通指针的区别在于智能指针实际上是对普通指针加了一层封装机制，区别是它负责自动释放所指的对象，这样的一层封装机制的目的是为了使得智能指针可以方便的管理一个对象的生命期。
+智能指针的原理：智能指针是一个类，这个类的构造函数中传入一个普通指针，析构函数中释放传入的指针。智能指针的类是栈上的对象，智能指针指向堆上开辟的空间，函数结束时，栈上的函数会自动被释放，智能指针指向的内存也会随之消失，防止内存泄漏。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C++ 中智能指针和指针的区别是什么</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过分析 vector 容器的源代码不难发现，它就是使用 3 个迭代器（可以理解成指针）来表示的：
+//_Alloc 表示内存分配器，此参数几乎不需要我们关心
+template &lt;class _Ty, class _Alloc = allocator&lt;_Ty&gt;&gt;
+class vector{
+    ...
+protected:
+    pointer _Myfirst;
+    pointer _Mylast;
+    pointer _Myend;
+};
+其中，_Myfirst 指向的是 vector 容器对象的起始字节位置；_Mylast 指向当前最后一个元素的末尾字节；_myend 指向整个 vector 容器所占用内存空间的末尾字节。
+将 3 个迭代器两两结合，还可以表达不同的含义，例如：
+_Myfirst 和 _Mylast 可以用来表示 vector 容器中目前已被使用的内存空间；
+_Mylast 和 _Myend 可以用来表示 vector 容器目前空闲的内存空间；
+_Myfirst 和 _Myend 可以用表示 vector 容器的容量。
+当 vector 的大小和容量相等（size==capacity）也就是满载时，如果再向其添加元素，那么 vector 就需要扩容。vector 容器扩容的过程需要经历以下 3 步：
+完全弃用现有的内存空间，重新申请更大的内存空间；
+将旧内存空间中的数据，按原有顺序移动到新的内存空间中；
+最后将旧的内存空间释放。
+这也就解释了，为什么 vector 容器在进行扩容后，与其相关的指针、引用以及迭代器可能会失效的原因。
+由此可见，vector 扩容是非常耗时的。为了降低再次分配内存空间时的成本，每次扩容时 vector 都会申请比用户需求量更多的内存空间（这也就是 vector 容量的由来，即 capacity&gt;=size），以便后期使用。
+vector 容器扩容时，不同的编译器申请更多内存空间的量是不同的。以 VS 为例，它会扩容现有容器容量的 50%。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vector 的实现原理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STL常见容器实现原理——vector,list等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Array
+连续存储结构，每个元素在内存上是连续的
+array是一个固定大小的顺序容器，不能动态改变大小，它的大小在定义后就不能被改变。由于array具有固定的大小，它不支持添加和删除元素或改变容器大小等其他容器拥有的操作。在定义一个array容器的时候必须指定大小。
+Defined in header :
+&lt;array&gt;
+template&lt;class T, std::size_t N&gt; struct array;
+内存分配策略
+在内存分配策略上，array也与C-style数组类似。编译器在哪里为array分配内存，取决于array定义的位置和方式。
+若作为函数的局部对象，则将从栈上获得内存，与之对比是的vector，vector底层数据结构是动态数组，从自由存储区上分配内存：
+若使用new操作符分配内存，则是在自由存储区上分配内存。
+若作为全局变量或局部静态变量，则是在全局/静态存储区上分配的内存。
+Array使用优劣
+(1)array比数组更安全。它提供了opeartor[]与at()成员函数，后者将进行数组越界检查。　 　
+(2)与其他容器相似，array也有自己的迭代器，因此array能够更好地与标准算法库结合起来。
+(3)通过array::swap函数，可以实现线性时间内的两个数组内容的交换。
+另外，不像C-style数组，array容器类型的名称不会自动转换为指针。对于C++程序员来说，array要比C-style数组更好用。
+vector
+vector的底层数据结构是动态数组，因此，vector的数据安排以及操作方式与std::array十很相似，它们间的唯一差别在于对空间的运用灵活性上。array为静态数组，有着静态数组最大的缺点：每次只能分配一定大小的存储空间，当有新元素插入时，要经历 “找到更大的内存空间”-&gt;“把数据复制到新空间” -&gt;“销毁旧空间” 三部曲， 对于std::array而言，这种空间管理的任务压在使用它的用户身上，用户必须把握好数据的数量，尽量在第一次分配时就给数据分配合理的空间（这有时很难做到)，以防止“三部曲”带来的代价，而数据溢出也是静态数组使用者需要注意的问题。
+而vector用户不需要亲自处理空间运用问题。vector是动态空间，随着新元素的插入，旧存储空间不够用时，vector内部机制会自行扩充空间以容纳新元素，当然，这种空间扩充大部分情况下（几乎是)也逃脱不了“三部曲”，只是不需要用户自己处理，而且vector处理得更加安全高效。vector的实现技术关键就在于对其大小的控制以及重新配置时数据移动效率。
+标准库的实现者使用了这样的内存分配策略：以最小的代价连续存储元素。为了使vector容器实现快速的内存分配，其实际分配的容量要比当前所需的空间多一些(预留空间)，vector容器预留了这些额外的存储区用于存放添加的新元素，于是不必为每个新元素进行一次内存分配。当继续向容器中加入元素导致备用空间被用光（超过了容量 capacity)，此时再加入元素时vector的内存管理机制便会扩充容量至两倍，如果两倍容量仍不足，就扩张至足够大的容量。容量扩张必须经历“重新配置、元素移动、释放原空间”这个浩大的工程。按照《STL源码剖析》中提供的vector源码，vector的内存配置原则为：
+如果vector原大小为0，则配置1，也即一个元素的大小。
+如果原大小不为0，则配置原大小的两倍。
+当然，vector的每种实现都可以自由地选择自己的内存分配策略，分配多少内存取决于其实现方式，不同的库采用不同的分配策略。
+迭代器失效问题
+　　(1)vector管理的是连续的内存空间，在容器中插入（或删除)元素时，插入（或删除)点后面的所有元素都需要向后（或向前)移动一个位置，指向发生移动的元素的迭代器都失效。这里以插入操作示例：
+　　(2)随着元素的插入，原来分配的连续内存空间已经不够且无法在原地拓展新的内存空间，整个容器会被copy到另外一块内存上，此时指向原来容器元素的所有迭代器通通失效。
+(3)删除元素后，指向被删除元素的迭代器失效，这是显而易见的。
+vector使用优劣
+优点：
+(1) 不指定一块内存大小的数组的连续存储，即可以像数组一样操作，但可以对此数组进行动态操作。通常体现在push_back() pop_back()
+(2) 随机访问方便，即支持[ ]操作符和vector.at()
+(3) 节省空间。
+缺点：
+(1) 在内部进行插入删除操作效率低。
+(2) 只能在vector的最后进行push和pop，不能在vector的头进行push和pop。
+(3) 当动态添加的数据超过vector默认分配的大小时要进行整体的重新分配、拷贝与释放
+list
+底层数据结构
+list同样是一个模板类，它底层数据结构为双向循环链表。因此，它支持任意位置常数时间的插入/删除操作，不支持快速随机访问。
+迭代器类型:
+list的迭代器具备前移、后移的能力，所以list提供的是Bidirectional iterator(双向迭代器)。由于采用的是双向迭代器，自然也很方便在指定元素之前插入新节点，所以list很正常地提供了insert()操作与push_back()/pop_back()操作。
+内存分配策略:
+list的空间配置策略，自然是像我们普通双向链表那样，有多少元素申请多少内存。它不像vector那样需要预留空间供新元素的分配，也不会因找不到连续的空间而引起整个容器的内存迁移。
+迭代器失效问题
+list 有一个重要性质：插入操作（insert)与接合操作（splice)都不会造成原有的list迭代器失效。这在vector是不成立的，因为vactor的插入可能引起空间的重新配置，导致原来的迭代器全部失效。list的迭代器失效，只会出现在删除的时候，指向删除元素的那个迭代器在删除后失效。
+通常来说，forward_list在使用灵活度上比不上list，因为它只能单向迭代元素，且提供的接口没有list多。然而，在内存的使用上，它是比list占优势的。当对内存的要求占首要位置时，应该选择forward_list。
+list使用优劣
+优点：
+　　(1) 不使用连续内存完成动态操作。
+　　(2) 在内部方便的进行插入和删除操作
+　　(3) 可在两端进行push、pop
+缺点：
+　　(1) 不能进行内部的随机访问，即不支持[ ]操作符和vector.at()
+　　(2) 相对于verctor占用内存多
+deque
+底层数据结构:
+vector是单向开口的线性连续空间，deque则是一种双向开口的连续数据空间。所谓的双向开口，意思是可以在头尾两端分别做元素的插入和删除操作。当然vector也可以在头尾两端进行操作，但是其头部操作效果奇差，所以标准库没有为vector提供push_front或pop_front操作。与vector类似，deque支持元素的快速随机访问。deque的示意图如下：
+现在问题来了：如果deque以数组来实现，如何做到在头部的常数时间插入？如果是采用链表来实现，又如何做到快速随机访问？deque的内部数据结构到底如何？想必你已经猜到了，要实现如上需求，需要由一段一段的连续空间链接起来的数据结构才能满足。
+内存分配策略:
+deque由一段一段的连续空间所链接而成，一旦需要在deque的前端或尾端增加新空间，便配置一段定量的连续空间，并将该空间串接在deque的头部或尾部。deque复杂的迭代器架构，构建出了所有分段连续空间”整体连续“的假象。
+既然deque是由一段一段定长的连续空间所构成，就需要有结构来管理这些连续空间。deque采用一块map（非STL中的map)作为主控，map是一块小的连续空间，其中每个元素都是指针，指向一块较大的线性连续空间，称为缓冲区。而缓冲区才是存储deque元素的空间主体。示例图：
+map本身也是一块固定大小的连续空间，当缓冲区数量增多，map容不下更多的指针时，deque会寻找一块新的空间来作为map。
+deque的迭代器
+为了使得这些分段的连续空间看起来像是一个整体，deque的迭代器必须有这样的能力：它必须能够指出分段连续空间在哪里，判断自己所指的位置是否位于某一个缓冲区的边缘，如果位于边缘，则执行operator– 或operator++时要能够自动跳到下一个缓冲区。因此，尽管deque的迭代器也是Ramdon Access Iterator 迭代器，但它的实现要比vector的复杂太多。
+迭代器失效问题
+　　(1)在deque容器首部或者尾部插入元素不会使得任何迭代器失效。
+　　(2)在其首部或尾部删除元素则只会使指向被删除元素的迭代器失效。
+　　(3)在deque容器的任何其他位置的插入和删除操作将使指向该容器元素的所有迭代器失效。
+deque使用优劣
+deque是在功能上合并了vector和list。
+优点：(1) 随机访问方便，即支持[ ]操作符和vector.at()
+(2) 在内部方便的进行插入和删除操作
+(3) 可在两端进行push、pop
+缺点：(1) 占用内存多
+Map
+Map是关联容器，以键值对的形式进行存储，方便进行查找，关键词起到索引的作用，值则表示与索引相关联的数据，以红黑树的结构实现，插入删除等操作都可以在O(log n)时间内完成
+Map基本操作：
+1.map a; map;支持多种类型
+2.添加数据：
+map1.insert(pair&lt;int,string&gt;   (102,"wobeitianjia")); 
+map1.insert(map&lt;int,string&gt;::value_type(102,"tianjia"));
+map1[102]="string";
+3.元素查找：map1.find(key) 返回一个迭代器指向键值为key的元素，如果没有找到，返回指向map尾部的迭代器
+4.元素删除：先查找元素，map::iterator it=map1.find(key); 找到之后map1.erase(it);
+5.map中的swap函数，交换的是两个容器而不是一个容器中的元素交换
+6.sort函数，因为map中key按照升序进行排列的，所以不能使用sort函数
+set
+Set是关联容器，set中每个元素都只包含一个关键字，set支持高效的关键字查询操作—检查每一个给定的关键字是否在set中，set是以红黑树的平衡二叉检索树结构实现的，支持高效插入删除，插如元素的时候会自动调整二叉树的结构，使得每个子树根节点键值大于左子树所有节点的键值，小于右子树所有节点的键值，另外还得保证左子树和右子树的高度相等
+平衡二叉检索树使用中序遍历算法，检索效率高于vector，deque，list等容器，另外使用中序遍历可将键值按照从小到大遍历出来
+构造set集合的主要目的是为了快速检索，不可直接去修改键值
+常用操作：
+　　1.元素插入：insert
+　　2.中序遍历：类似vector遍历（用迭代器）
+　　3.反向遍历：利用反向迭代器reverse_iterator
+set&lt;int&gt; s;  
+set&lt;int&gt;::reverse_iterator rit; 
+for(rit=s.rbegin();rit!=s.rend();rit++)
+　　4.元素的删除：s.erase(2); s.clear();
+　　5.元素的检索：find(),若找到，返回该值迭代器的位置，否则返回最后一个元素后面一个位置s.end()
+it=s.find(5); 
+if(it==s.end()) 
+cout&lt;&lt;"not find"&lt;&lt;endl;
+else cout&lt;&lt;*it&lt;&lt;endl;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C++ 从代码到可执行二进制文件的过程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对于一个C++源文件，从文本到可执行文件一般需要四个过程：
+1，预处理阶段：对源代码文件中文件包含关系（头文件）、预编译语句（宏定义）进行分析和替换，成预编译文件。
+删除所有的#define，展开所有的宏定义。
+处理所有的条件预编译指令，如“#if”、“#endif”、“#ifdef”、“#elif”和“#else”。
+处理“#include”预编译指令，将文件内容替换到它的位置，这个过程是递归进行的，文件中包含其他文件。
+删除所有的注释，“//”和“/**/”。
+保留所有的#pragma 编译器指令，编译器需要用到他们，如：#pragma once 是为了防止有文件被重复引用。
+添加行号和文件标识，便于编译时编译器产生调试用的行号信息，和编译时产生编译错误或警告是能够显示行号。
+2，编译阶段：将经过预处理后的预编译文件转换成特定汇编代码，生成汇编文件。
+词法分析：利用类似于“有限状态机”的算法，将源代码程序输入到扫描机中，将其中的字符序列分割成一系列的记号。
+语法分析：语法分析器对由扫描器产生的记号，进行语法分析，产生语法树。由语法分析器输出的语法树是一种以表达式为节点的树。
+语义分析：语法分析器只是完成了对表达式语法层面的分析，语义分析器则对表达式是否有意义进行判断，其分析的语义是静态语义——在编译期能分期的语义，相对应的动态语义是在运行期才能确定的语义。
+优化：源代码级别的一个优化过程。
+目标代码生成：由代码生成器将中间代码转换成目标机器代码，生成一系列的代码序列——汇编语言表示。
+目标代码优化：目标代码优化器对上述的目标机器代码进行优化：寻找合适的寻址方式、使用位移来替代乘法运算、删除多余的指令等。
+3，汇编阶段：将编译阶段生成的汇编文件转化成机器码，生成可重定位目标文件。
+汇编器的汇编过程相对于编译器来说更简单，没有复杂的语法，也没有语义，更不需要做指令优化，只是根据汇编指令和机器指令的对照表一一翻译过来，汇编过程有汇编器as完成。经汇编之后，产生目标文件(与可执行文件格式几乎一样)xxx.o(Windows下)、xxx.obj(Linux下)。
+4，链接阶段：将多个目标文件及所需要的库连接成最终的可执行目标文件。链接分为静态链接和动态链接：
+1、静态链接：
+函数和数据被编译进一个二进制文件。在使用静态库的情况下，在编译链接可执行文件时，链接器从库中复制这些函数和数据并把它们和应用程序的其它模块组合起来创建最终的可执行文件。
+空间浪费：因为每个可执行程序中对所有需要的目标文件都要有一份副本，所以如果多个程序对同一个目标文件都有依赖，会出现同一个目标文件都在内存存在多个副本；
+更新困难：每当库函数的代码修改了，这个时候就需要重新进行编译链接形成可执行程序。
+运行速度快：但是静态链接的优点就是，在可执行程序中已经具备了所有执行程序所需要的任何东西，在执行的时候运行速度快。
+2、动态链接：
+动态链接的基本思想是把程序按照模块拆分成各个相对独立部分，在程序运行时才将它们链接在一起形成一个完整的程序，而不是像静态链接一样把所有程序模块都链接成一个单独的可执行文件。
+共享库：就是即使需要每个程序都依赖同一个库，但是该库不会像静态链接那样在内存中存在多分，副本，而是这多个程序在执行时共享同一份副本；
+更新方便：更新时只需要替换原来的目标文件，而无需将所有的程序再重新链接一遍。当程序下一次运行时，新版本的目标文件会被自动加载到内存并且链接起来，程序就完成了升级的目标。
+性能损耗：因为把链接推迟到了程序运行时，所以每次执行程序都需要进行链接，所以性能会有一定损失。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -491,7 +839,7 @@
   <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="46.83203125" defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -516,36 +864,54 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
+      <c r="B3" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="5" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="6" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
@@ -1246,7 +1612,7 @@
   <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="46.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1271,10 +1637,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
@@ -1282,40 +1648,67 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="5" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="6" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="7" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="8" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="9" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">

--- a/src/pro/pro.xlsx
+++ b/src/pro/pro.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4380" yWindow="2340" windowWidth="30160" windowHeight="17640" tabRatio="500"/>
+    <workbookView xWindow="4180" yWindow="2100" windowWidth="30160" windowHeight="17640" tabRatio="500" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="1.C++" sheetId="1" r:id="rId1"/>
@@ -838,7 +838,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -1234,7 +1234,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>

--- a/src/pro/pro.xlsx
+++ b/src/pro/pro.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4180" yWindow="2100" windowWidth="30160" windowHeight="17640" tabRatio="500" activeTab="10"/>
+    <workbookView xWindow="6480" yWindow="1920" windowWidth="30160" windowHeight="17640" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="1.C++" sheetId="1" r:id="rId1"/>
@@ -37,25 +37,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="76">
   <si>
     <t>title</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ans</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一款好的APP离不了一个漂亮的布局，本文章将向大家分享React Native中的布局方式FlexBox。 
-在React Native中布局采用的是FleBox(弹性框)进行布局。
-FlexBox提供了在不同尺寸设备上都能保持一致的布局方式。FlexBox是CSS3弹性框布局规范，目前还处于最终征求意见稿 (Last Call Working Draft)阶段，并不是所有的浏览器都支持Flexbox。但大家在做React Native开发时大可不必担心FlexBox的兼容性问题，因为既然React Native选择用FlexBox布局，那么React Native对FlexBox的支持自然会做的很好。
-宽和高
-在学习FlexBox之前首先要清楚一个概念“宽和高”。一个组件的高度和宽度决定了它在屏幕上的尺寸，也就是大小。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>React Native布局详细指南</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -77,16 +65,6 @@
   </si>
   <si>
     <t>index</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>“图形图像”</t>
-    <rPh sb="1" eb="2">
-      <t>tu'xing</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>tu'xiang</t>
-    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -441,6 +419,452 @@
 性能损耗：因为把链接推迟到了程序运行时，所以每次执行程序都需要进行链接，所以性能会有一定损失。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>UNION那些事</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联合（union）是一种节省空间的特殊的类，一个 union 可以有多个数据成员，但是在任意时刻只有一个数据成员可以有值。当某个成员被赋值后其他成员变为未定义状态。联合有如下特点：
+默认访问控制符为 public
+可以含有构造函数、析构函数
+不能含有引用类型的成员
+不能继承自其他类，不能作为基类
+不能含有虚函数
+匿名 union 在定义所在作用域可直接访问 union 成员
+匿名 union 不能包含 protected 成员或 private 成员
+全局匿名联合必须是静态（static）的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>explicit(显式)关键字那些事</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>explicit 修饰构造函数时，可以防止隐式转换和复制初始化
+explicit 修饰转换函数时，可以防止隐式转换，但按语境转换除外</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>:: 那些事</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全局作用域符（::name）：用于类型名称（类、类成员、成员函数、变量等）前，表示作用域为全局命名空间
+类作用域符（class::name）：用于表示指定类型的作用域范围是具体某个类的
+命名空间作用域符（namespace::name）:用于表示指定类型的作用域范围是具体某个命名空间的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何优化Cocos Creator 包体体积。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1: 代码体积(引擎 + 业务逻辑代码setting.js)大头在引擎;引擎优化,非常简单，你只要把不要的模块去掉就可以了，你要知道哪些模块是占体积多的，比如物理引擎，能不用的模块，就不用, cocos creator 足够优秀的2D编辑器，可以替代tilemap, 去掉tilemap逻辑。
+里面的文件数量, 非代码加载的资源，我一定放出resources模块。
+2: 图像资源;
+图片的压缩格式: 背景，jpg 体积要小于png, 背景图片jpg, 很多图片格式，导出美术图后，这些图，任然可以压缩。TinyPNG等; 图片分辨率: 1920x1080 &gt; 960x540; 就减少分辨率。
+尽可能的使用九宫格的图片，来代替一张整图 ,大大的降低的图片的分斌率，这样就可以节省资源;
+图片清晰度: 其实压缩算法，也可以调整清晰度, png, 调整量化系数数，关键信息变少，清晰度会减少，但是分辨率不会变;
+图片的像素格式: 这个也式可以的，argb4444 非常少的，除非， 你不是彩色的。
+图集打包以后有空地: 空白的地方, 整理，调整;
+图片数量：越少越好，帧动画, 减少帧的数目，骨骼动画替换帧动画，节省资源;
+3:音乐音效资源（压缩格式, 背景音乐的大小，音乐的数量，声道，采样率）;
+压缩格式: WAV ---&gt;体积 mp3, ogg,
+声道：双声道的数据，那么这个时候，体积就式2倍;
+采样率: 1秒---》44100 sample, 降低采样率, 压缩软件来做到，视频编码工具来做到;
+背景音乐：体积一般比较大，竟可能的要优先优化它;
+4: 字库:
+(1) 特效文字，尽量使用位图字体，几个字母 + 图片，体积远远小于一个完整的字库, 性能还要好; 如数字，界面的文字, bmpfont ---&gt; .png + .fnt文件;
+(2) 尽可能的使用系统字库 ;
+(3) fontmin可以压缩字库, 把不用的文字，从字库移除，减少体积;
+(4) 位图字与矢量字，哪个性能更好？位图字： 速度快，但是，内存大, 矢量字, 速度慢，但是内存小。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cocos creator如何做资源管理。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cocos提供了一系列的加载接口，包括cc.loader.load，cc.loader.loadRes，cc.loader.loadResArray，cc.loader.loadResDir
+创建和管理场景
+1、场景资源自动释放
+cc.loader.release
+属性检查器 中设置“自动释放资源”选项，该项默认关闭
+2、防止特定资源被自动释放
+当场景切换后，如果场景已设置自动释放资源资源，可以使用 cc.loader.setAutoRelease 或者 cc.loader.setAutoReleaseRecursively 来保留这些资源
+3、不延迟加载资源
+全部加载完成后才会触发场景切换
+4、延迟加载依赖的资源
+加载场景时，如果选项开启，则这个场景直接或间接依赖的所有贴图、粒子和声音都将被延迟到场景切换后才加载，使场景切换速度极大提升
+图像资源（Texture）
+1、目前包括 JPG 和 PNG 两种
+预制资源（Prefab）
+1、设为手动同步时
+当预制对应的原始资源被修改后，场景中的预制实例不会同步刷新，只有在用户手动还原预制时才会刷新。
+2、设为自动同步
+该预制实例会自动和原始资源保持同步
+3、预置的选项
+自动调整（默认）：
+设为这个选项后，引擎将根据创建次数自动调整优化策略。初次创建实例时，等同于“优化单次创建性能”，多次创建后将自动“优化多次创建性能”。
+优化单次创建性能：
+该选项会跳过针对这个 prefab 的代码生成优化操作。
+优化多次创建性能：
+该选项会启用针对这个 prefab 的代码生成优化操作。
+图集资源（Atlas）
+1、为什么要使用图集资源
+合成图集时会去除每张图片周围的空白区域，加上可以在整体上实施各种优化算法，合成图集后可以大大减少游戏包体和内存占用
+多个 Sprite 如果渲染的是来自同一张图集的图片时，这些 Sprite 可以使用同一个渲染批次来处理，大大减少 CPU 的运算时间，提高运行效率。
+2、图集制作软件
+TexturePacker
+Zwoptex
+3、将以前碎图 -&gt; 图集 方法
+目前我们提供了一个简单的小工具来完成场景中对图片资源引用从碎图或老图集到新图集的重定向。下面介绍工作流程。
+生成新图集：不管是从碎图合并，还是将原来的图集重新拆分或合并，您都需要先使用 TexturePacker 生成完整的新图集。然后将新图集导入到项目资源文件夹中。
+双击打开您需要重定向资源引用的场景或 Prefab
+点击主菜单的「开发者-&gt;在当前场景使用指定图集替换 spriteFrame…」，在打开的对话框里选择您新生成的图集，等待替换操作完成。（如果新图集有多张，应该重复这一步直到所有相关新图集都替换完毕） 4.如果您有多个场景或 prefab，需要重复执行 2-3 步，遍历每个相关的场景或 Prefab
+确认所有相关图片资源的引用都已经替换成了新图集后，现在可以删除原有的碎图或旧图集了。
+字体资源
+1、三类字体资源
+系统字体 ：使用Label组件中的 Use System Font 属性
+动态字体 ：TTF 格式
+位图字体 ：
+位图字体由 fnt 格式的字体文件和一张 png 图片
+2、位图字体生产工具
+Glyph Designer
+Hiero
+BMFont (Windows)
+粒子资源（ParticleSystem）
+声音资源
+1、加载模式
+音频的加载方式只影响 Web 上的加载效果 由于各个 Web 平台实现标准的进度不一致，所以提供了两种声音资源的加载方式。
+WebAudio
+通过 WebAudio 方式加载的声音资源，在引擎内是以一个 buffer 的形式缓存的。
+这种方式的优点是兼容性好，问题比较少。缺点是占用的内存资源过多。
+DOM Audio
+通过生成一个标准的
+使用标准的 audio 元素播放声音资源的时候，在某些浏览器上可能遇到一些限制。
+比如：每次播放必须是用户操作事件内才允许播放（WebAudio 只要求第一次），只允许播放一个声音资源等。
+2、手动选择按某种解析方式加载音频
+有时候我们可能不会使用场景的自动加载或是预加载功能，而是希望自己手动控制 cc.load 资源的加载流程。 这个时候我们也是可以通过音频资源的 url 来选择加载的方式。
+默认方式加载音频
+音频默认是使用 webAudio 的方式加载并播放的，只有在不支持的浏览器才会使用 dom 元素加载播放。
+cc.loader.load(cc.url.raw(‘resources/background.mp3’), callback);
+强制使用 dom element 加载
+　　1.在资源管理器内选中一个 audio，属性检查器内会有加载模式的选择
+　　2.音频在加载过程中，会读取 url 内的 get 参数。其中只需要定义一个 useDom 参数，使其有一个非空的值，这样在 audioDownloader 中，就会强制使用 DOM element 的方式加载播放这个音频。
+cc.loader.load(cc.url.raw(‘resources/background.mp3?useDom=1’), callback);
+骨骼动画资源（Spine）
+1、导入骨骼动画资源 　骨骼动画所需资源有：
+.json 骨骼数据
+.png 图集纹理
+.txt/.atlas 图集数据
+2、创建骨骼动画资源
+方法之一 ：添加组件 ,然后 添加渲染组件 选择 Spine Skeleton
+PS：集成Spine功能，不需要额外添加插件
+瓦片图资源（TiledMap）
+1、导入地图资源
+　地图所需资源有：
+.tmx 地图数据
+.png 图集纹理
+.tsx tileset 数据配置文件（部分 tmx 文件需要）
+2、创建瓦片图资源
+方法之一 ：添加组件 ,然后 添加渲染组件 选择 TiledMap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cocos Creator如何编写单例模式。</t>
+  </si>
+  <si>
+    <t>ts版本：
+export default class GameManager
+{
+    private static instance: GameManager;
+    public static getInstance(): GameManager
+    {
+        if (!GameManager.instance)
+        {
+            GameManager.instance = new GameManager();
+        }
+        return GameManager.instance;
+    }
+}
+泛型
+//Singleton.ts
+export class Singleton&lt;T&gt;{
+    private static instance: any = null;
+    public static GetInstance&lt;T&gt;(c: { new(): T }): T
+    {
+        if (this.instance == null)
+        {
+            this.instance = new c();
+        }
+        return this.instance;
+    }
+    public init()
+    {
+        console.dir(this);
+    }
+}
+泛型用法
+export default class GameManager extends Singleton&lt;GameManager&gt;
+{
+ public test()
+    {
+    }
+}
+//在其他地方调用
+GameManager.GetInstance(GameManager).init();
+GameManager.GetInstance(GameManager).test();</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cocos Creator 如何使用物理引擎?</t>
+  </si>
+  <si>
+    <t>一、开启物理引擎
+COCOS物理引擎是默认关闭的，必须用代码打开
+新建一个脚本
+onLoad(){
+    let manager=cc.director.getPhysicsManager();
+    manager.enabled=true;//开启物理引擎
+}
+这是onload里面的代码
+脚本挂到canvas节点上即可开启物理引擎
+二、碰撞效果
+首先必须开启物理引擎
+必须在节点上添加RidBody（刚体）组件和物理组件中的碰撞组件这是重点
+然后需要在RigidBody里面设置刚体类型
+刚体类型: Static (静态)Kinematic (不妥外力)Dynamic (动态)和Animated (通过设置线性速度和角速度驱动）
+常用的刚体就是Static (静态)和Dynamic (动态)如果想让一个节点向下坠落就用Dynamic (动态)，如果想让一个节点当做地面就可以用Static (静态)
+物理碰撞组件有四种，分别是Chain（链条形） Circle（圆形） Box（盒形） Polygon（多边形）根据需要去选择，不要把碰撞组件当成物理碰撞组件来用
+三、碰撞回调
+必须做好前两项开启物理引擎并且有碰撞效果，必须的必，不然无效
+新建脚本来放碰撞回调
+    onBeginContact(contact:cc.PhysicsContact,selfCollider:cc.PhysicsCollider,otherConllider:cc.PhysicsCollider):void{
+        console.log("onBeginContact")
+        //只在两个碰撞体开始接触时调用一次
+    }
+    onPreSolve(contact:cc.PhysicsContact,selfCollider:cc.PhysicsCollider,otherConllider:cc.PhysicsCollider):void{
+        console.log("onPreSolve")
+        //每次将要处理碰撞体接触逻辑时被调用
+    }
+    onPostSolve(contact:cc.PhysicsContact,selfCollider:cc.PhysicsCollider,otherConllider:cc.PhysicsCollider):void{
+        console.log("onPostSolve")
+        //每次处理完碰撞体接触逻辑时被调用
+    }
+    onEndContact(contact:cc.PhysicsContact,selfCollider:cc.PhysicsCollider,otherConllider:cc.PhysicsCollider):void{
+        console.log("onEndContact")
+        //只在两个碰撞体结束接触时被调用一次
+    }
+selfCollider 和 otherCollider 很容易理解，如名字所示，selfCollider 指的是回调脚本的节点上的碰撞体，ohterCollider 指的是发生碰撞的另一个碰撞体。（这句话来自官方文档）
+在碰撞或者被碰撞的节点上挂上碰撞回调脚本，并且在RidBody(刚体)
+组件上开启碰撞回调
+这样就可以了
+导致没成功的原因可能是把碰撞组件当成了物理的碰撞组件，或者忘了挂脚本。如果是碰撞回调没有反应的话可能是RigidBody组件没有打开碰撞回调</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cocos Creator Label的原理与如何节约Drawcall?</t>
+  </si>
+  <si>
+    <t>Label是先将文字绘制在Canvas标签中，然后将Canvas作为贴图对象，在Render阶段渲染出来。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cocos Creator 背包系统可能会需要哪些优化？</t>
+  </si>
+  <si>
+    <t>Cocos Creator WebSocket与http://Socket.IO分别是什么？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>websocket
+1: creator只支持websocket, h5的标准也只支持websocket;
+2: websocket 底层是 tcp socket, 基于tcp socket上建立了连接，收发数据的标准，保证了用户收到的数据和发到的数据是一致的，不用考虑粘包等问题,websocket协议已经解决了;
+3: websocket的使用方式:
+　　1&gt;new WebSocket(url); 服务器对应的url: “ws://127.0.0.1:6081/ws”, ip + port
+　　2&gt; 支持的数据: 文本数据类型与二进制数据类型;
+　　　　sock.binaryType = "arraybuffer"/”Blob”; 支持arraybuffer和Blob类型,一般配置成arraybuffer,根据服务器而定;
+　　3&gt;配置好websocket的回掉函数:
+　　　　onopen(event), onmessage(event), onclose(event), onerror(event),
+　　4&gt;不用了关闭socket或收到服务器关闭遇到错误: close方法;
+4: 基于node.js来测试下websocket, node.js见服务器课程;
+socket.io
+1: socket.io是基于 TCP socket/Websocket封装的 上层的一个框架;
+2: 使得人们能方便的使用类似事件的模式来处理网络数据包;
+3: creator 搭建socket.io注意:
+　　1&gt;jsb里面原生实现了SocketIO;
+　　2&gt;h5 使用js的实现socket-io.js; // 下载标准的socket.io.js,然后修改过滤掉原生平台的（!CC_JSB &amp;&amp; !cc.sys.isNative）;
+4: socket.io的使用: 注意客户端服务器版本一定要对上,使用课堂提供的版本匹配
+　　1&gt; connect: var opts = {
+　　　　'reconnection':false,
+　　　　'force new connection': true,
+　　　　'transports':['websocket', 'polling']
+　　　}
+　　this.sio = window.io.connect(this.ip,opts);
+　　2&gt;系统事件: connect/disconnect, connect_failed,
+　　3&gt; 自定义事件:
+　　4&gt; 关闭 this.sio.disconnect();</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cocos Creator如何内置protobuf JS版本?</t>
+  </si>
+  <si>
+    <t>Cocos Creator 材质, shader 分别是什么？</t>
+  </si>
+  <si>
+    <t>1: 什么是Shader和材质?
+Shader是一种给显卡GPU执行的程序, 是一种绘制算法，显卡的渲染流水线加载Shader代码后，就能够在绘制的时候执行Shader的代码。Cocos 有自己的一个Shader的结构，Shader的开发语言cocos使用的是GLSL编程语言。材质是一种配置文件，选好一个Shader,并指定好这个Shader所需要的参数；
+1.2: cocos 物体是如何绘制的?
+以Sprite组件为例，它有一个材质，这个时候绘制图片的时候，就使用这个材质，通过材质渲染管道准备好算法，和参数，这样，渲染管道就绘制出来。
+2: 完整的Shader渲染流程(pass)
+3: cocos Shader的结构
+3.1: 描述部分
+1.  `顶点shader在哪里，着色shader在哪里？材质上的参数定义哪些，这个是描述部分。`
+1
+3.2: 顶点Shader部分:
+3.3: 着色Shader部分:
+4: GLSL常用的概念:
+GLSL变量精度级别：highp, mediump, lowp (高, 中, 低) attribute: 渲染管道传过来的数据, 只能在顶点Shader中使用; varying: vectex Shader, frag Shader 的传递变量 uniform: 外部程序可以来设置的变量;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cocos Creator 固定宽度与固定高度的底层原理是什么？Cocos creator是如何做适配的?</t>
+  </si>
+  <si>
+    <t>Widge称之为对齐挂件：能够根据需要将元素对齐父节点的不同参考位置。其实是一个相对定位组件，相对于自己的父元素。顶部的三个按钮相对于屏幕上边的距离保持不变。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cocos Creator 图集打包有什么意义，我们一般在项目里面怎么规划图集？</t>
+  </si>
+  <si>
+    <t>Cocos Creator 如何做游戏框架，能让多人很好的协作,代码好维护?</t>
+  </si>
+  <si>
+    <t>Cocos Creator 2D如何做Drawcall优化?</t>
+  </si>
+  <si>
+    <t>Cococs creator 骨骼动画与帧动画的优缺点是什么？</t>
+  </si>
+  <si>
+    <t>如何使用Cococs Creator制作一个地图编辑与寻路导航系统?</t>
+  </si>
+  <si>
+    <t>1、插件或者TileMap工具生成地图json文件
+2、astar寻路算法
+3、将json文件与寻路算法结合，获得路径坐标，并转化为游戏内的实际坐标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cocos Creator 节点池的基本原理是什么？如何使用?</t>
+  </si>
+  <si>
+    <t>Cocos Creator 如何设计热更新系统, 如何设计大厅与子游戏模式？</t>
+  </si>
+  <si>
+    <t>骨骼动画是cocos2d-x动画在人物渲染方面的技术,分二个部分:用于绘制人物的外观呈现（被称为蒙皮或者mesh）和用于mesh进行动画(造型和关键帧) 的一组分层的相互连接的骨骼.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我们先打开官方教程，对照官方文档，了解一下大致流程，发现热更流程大致分为下面四点：
+1.基于原生打包目录中的 res 和 src 目录生成本地 Manifest 文件。
+2.创建一个热更新组件来负责热更新逻辑。
+3.游戏发布后，若需要更新版本，则生成一套远程版本资源，包含 res 目录、src 目录和 Manifest 文件，将远程版本部署到服务端。
+4.当热更新组件检测到服务端 Manifest 版本不一致时，就会开始热更新
+这里我简单剖析下DEMO:
+项目中必须得导入一份manifest文件(怎么导入参考我的热更新插件使用文档)
+游戏运行起来后，会运行项目的HotUpdateScene场景，这个场景会执行热更新逻辑，也就是HotUpdate.ts，我已经对热更逻辑进行了一个简单的封装，理论上其他项目可以直接使用。
+HotUpdate.ts的热更逻辑会根据当前项目的最新manifest文件信息，对比server上的manifest文件，有差异下载差异，没有差异就直接进入游戏了。
+下载完差异后，游戏必须要软重启(cc.game.restart())下，使热更新的资源生效，至此，热更新就算完成了。
+大厅+子游戏的模式，在棋牌类型、教育类型游戏中比较常见，通常是安装包里面只有大厅的资源和代码，然后子游戏根据需求以热更新的方式下载来提供给玩家。
+　　之前一直负责的是cocos2dx-lua的开发，lua作为脚本语言，非常适合做热更新及大厅+子游戏模式的开发。而cocos creator使用的是js或者ts，作为脚本语言也是很方便做热更新的，但是js编译是把所有的脚本编译成一个单独的js文件，如果不做调整，会导致所有的大厅+游戏代码编译成一个单独的js文件，是不太方便做成大厅+子游戏的模式的，这里要讨论的就是如何调整，以做成大厅+子游戏的模式。
+　　首先就是要将大厅、子游戏分开来构建了，要不就是创建单独的大厅+子游戏工程，要不就是将大厅或者子游戏的代码、资源拷贝到一个构建工程，然后用命令行工具或者直接使用GUI工具构建。我这边没有单独分开创建工程，选择的是在构建的时候通过脚本拷贝相关的资源，然后单独构建。
+　　分开构建/编译好了资源之后，就是在app中怎么使用了。在lua版本中，引擎的资源加载方式是直接读取指定目录的脚本/资源，所以我们只要先将子游戏的脚本/资源下载好，再引入指定目录的脚本就可以了。js作为脚本资源，思路上我们也是读取对应目录的脚本，但是在creator版本中，引擎封装了一套资源加载工具，每个资源对应一个uuid，访问资源的时候是使用uuid去寻找资源(我们使用cc.loader.loadRes传入的是带资源目录的url，内部会根据这个url找到uuid再来加载资源)，构建/编译项目的时候，会生成一个setting.js/jsc的文件，这个文件就是uuid和实际资源路径的对应表。所以我们需要做的就是如何引入子游戏生成的这个setting文件。参考论坛网友的思路，就是引入另外一个js脚本，在该脚本中再去读取对应子游戏的setting文件，合并到大厅的setting配置中，然后再跳转到对应的游戏场景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cocos Android里 runOnGLThread是什么意思？</t>
+  </si>
+  <si>
+    <t>在android中经常需要用到异步操作，Thread+Handler方式比较繁琐（当然功能也最为强大），而AsyncTask只能执行一次，很多需求不能满足（有关AsyncTask用法，请参考我引用的另外一篇博客）。
+      此时，我们可以试试Activity提供的另外一种简单的方法runOnUiThread，runOnUiThread可以帮助你在线程中执行UI更新操作。
+runOnUiThread是Activity中的方法，在我们的工作线程中需要告诉系统是哪个Activity调用，所以前面显式地指明Activity
+runOnUiThread首先判断是否是UI线程，不是的话就post，如果是的话就正常运行该线程。只要经过主线程中的Handler.post或者postDelayed处理，线程Runnable都可以被加入到UI主线程的消息循环中，并为主线程的Handler所检索并调用。
+值得注意的是，本节中的runOnUiThread方法适合于从子线程中更新普通Android View内容时调用。但是，当我们在Android下进行OpenGL ES开发时，也就是本文关注的cocos2d-x开发时，需要使用另一个方法，即下文要讨论的runOnGLThread。
+cocos2d-x开发中，一旦涉及到Android平台移植自然要与Cocos2dxActivity这个东西打交道。Cocos2dxActivity是cocos2d-x开发团队的成果，它是一个抽象类，具体形式如下：
+我们知道，cocos2d-x是运行于OpenGL平台的。Android平台下进行OpenGL开发要与一个特殊View--GLSurefaceView打交道。GLSurefaceView要使用它自己的渲染器(Render)进行图形渲染，这个Render是运行于一个独立的区别于主GUI线程的子线程上的。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cocos Creator 如何设计自动化打包发布脚本?</t>
+  </si>
+  <si>
+    <t>（1）Jenkins
+https://blog.csdn.net/foupwang/article/details/82421965
+  (2) 自己写脚本搭建
+https://xyzzlky.cn/posts/57161/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编码了解么？unicode和utf-8的区别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编码的本质就是将二进制与符号一一映射，然后通过二进制码解析出对应的符号。一开始计算机只存在于欧美，所以他们理所应当的把英文（以及常见的符号）与二进制做了一个映射表，这就是ASCII码。后来，其他国家也开始使用，需要用到的二进制也越来越多，不同的国家都有不同的编码方式，比如中国的GBK。但是问题是各个国家都不统一，解析起来非常麻烦，因此一个ISO的组织就重新搞了一个包含所有文字与符号的编码方式，即Unicode。unicode全称"Universal Multiple-Octet Coded Character Set"，是一个全球统一的符号集，规定了每个符号对应的二进制编码，这个编码的长度是不确定的，由字符来决定。虽然如此，但是他却没有表示这个符号该如何存储，比如一个英文字符只需要一个字节就可以处理，而一个汉字可能就需要两个字符存储。问题是我在编码的时候并不知道这N个字节的二进制编码到底表示的是一个还是N个符号。这样，UTF-8出现了，他提供了一种Unicode的存储方式，它是一种变长的编码方式。它可以使用1~4个字节表示一个符号，根据不同的符号而变化字节长度。
+UTF-8的编码规则只有二条：
+1）对于单字节的符号，字节的第一位设为0，后面7位为这个符号的unicode码。因此对于英语字母，UTF-8编码和ASCII码是相同的。
+2）对于n字节的符号（n&gt;1），第一个字节的前n位都设为1，第n+1位设为0，后面字节的前两位一律设为10。剩下的没有提及的二进制位，全部为这个符号的unicode码。
+这样，通过判断每个字节前面的几位，就可以判断其表示的是某个符号还是符号的一部分了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为什么const修饰成员函数后不能修改成员变量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每个成员函数在调用的时候，都会把this作为第一个参数传进去。我们在用const修饰成员函数的时候，就相当于修饰了this，也就是说我们的第一个参数应该是
+ const 类型* this 
+所以我们不能去修改this的成员变量，编译器不允许通过。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用过或很熟悉的设计模式有哪些？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个问题看好书写写代码就可以自由发挥了，下面给几个例子。
+工厂模式，通过简单工厂生成NPC对象，简单处理的话可通过“字符串匹配”动态创建对象。如果有“反射机制”就可以直接传class来实现。当然可以进一步使用抽象工厂，处理不同的生产对象。
+单例，实现全局唯一的一个对象。构造函数、静态指针都是私有的，使用前提前初始化或者加锁来保证线程安全。
+Adaptor适配器，代码适配原来的相机移动最后调用的是原来的移动，现在加了适配器继承里面放了当前引擎的摄像机，然后覆盖原来摄像机的移动逻辑。
+Observer，一个对象绑定多个观察者，然后这个对象一旦有消息就立刻公布给所有的观察者，观察者可以动态添加或删除。在UE4里面，行为树任务节点请求任务后进入执行状态，然后会立刻注册一个观察者observer到行为树（行为树本身就相当于前面提到的那个对象）的observer数组里面同时绑定一个代理函数。行为树tick检测消息发送给所有观察者，观察者收到消息执行代理函数。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C++中四种Cast的使用场景是什么？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>constcast，去掉常量属性以及volatile，但是如果原来他就是常量去掉之后千万不要修改；比如你手里有一个常量指针引用，但是函数接口是非常量指针，可能需要转换一下；成员函数声明为const，你想用this去执行一个函数，也需要用constcast
+staticcast，基本类型转换到void，转换父类指针到子类不安全
+dynamiccast，判断基类指针或引用是不是我要的子类类型，不是强转结果就返回null，用于多态中的类型转换
+reintercast，可以完成一些跨类型的转换，如int到void*，用于序列化网络包数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_cdecl/__stdcall是什么意思</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常见的函数调用有如下
+__cdecl/__stdcall/__thiscall/__fastcall。
+cdecl按照c语言标准，从右到左，可以实现可变参数，调用者弹出参数。
+stdcall（pascal调用约定）按照c++标准，函数参数从右到左，不支持可变参数，函数返回自动清空。但是有的时候编译器会识别并优化成cdecl。
+Pascal语言中参数就是从左到右入栈的不支持可变长度参数
+（注：__stdcall标记的函数结束后，ret 8表示清理8个字节的堆栈，函数自己恢复了堆栈）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -498,8 +922,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="23">
+  <cellStyleXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -538,7 +964,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="23">
+  <cellStyles count="25">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
@@ -551,6 +977,7 @@
     <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -562,6 +989,7 @@
     <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="24" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -839,7 +1267,7 @@
   <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="46.83203125" defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -850,7 +1278,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -864,10 +1292,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
@@ -875,10 +1303,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
@@ -886,10 +1314,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
@@ -897,10 +1325,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
@@ -908,40 +1336,76 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="8" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="9" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="10" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="11" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="12" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
@@ -1046,7 +1510,7 @@
   <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="46.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1057,7 +1521,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1071,22 +1535,17 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
+        <v>70</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>2</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="C3" s="4"/>
     </row>
     <row r="4" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
@@ -1234,8 +1693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="46.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1246,7 +1705,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1259,23 +1718,14 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>2</v>
-      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="3"/>
     </row>
     <row r="3" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="C3" s="4"/>
     </row>
     <row r="4" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
@@ -1419,6 +1869,1214 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="46.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="46.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="3"/>
+    </row>
+    <row r="3" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4"/>
+    </row>
+    <row r="4" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="46.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="46.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="46.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="46.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="3"/>
+    </row>
+    <row r="3" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4"/>
+    </row>
+    <row r="4" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="46.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="46.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="3"/>
+    </row>
+    <row r="3" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4"/>
+    </row>
+    <row r="4" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C30"/>
+  <sheetViews>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="46.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="46.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="46.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="46.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="3"/>
+    </row>
+    <row r="3" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4"/>
+    </row>
+    <row r="4" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C30"/>
   <sheetViews>
@@ -1434,7 +3092,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1448,10 +3106,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
+        <v>66</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>2</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
@@ -1459,1170 +3117,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
         <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="1">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="1">
-        <v>28</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C30"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="46.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="10" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="46.83203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="1">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="1">
-        <v>28</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C30"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="46.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="10" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="46.83203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="1">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="1">
-        <v>28</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C30"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="46.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="10" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="46.83203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="1">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="1">
-        <v>28</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C30"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="46.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="10" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="46.83203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="1">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="1">
-        <v>28</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C30"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="46.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="10" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="46.83203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="1">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="1">
-        <v>28</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C30"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="46.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="10" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="46.83203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
@@ -2772,7 +3270,7 @@
   <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="46.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2783,7 +3281,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2796,23 +3294,14 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>2</v>
-      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="3"/>
     </row>
     <row r="3" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="C3" s="4"/>
     </row>
     <row r="4" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">

--- a/src/pro/pro.xlsx
+++ b/src/pro/pro.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6480" yWindow="1920" windowWidth="30160" windowHeight="17640" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="7460" yWindow="760" windowWidth="30160" windowHeight="17640" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="1.C++" sheetId="1" r:id="rId1"/>
@@ -37,30 +37,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
   <si>
     <t>title</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ans</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高性能的简单列表组件，支持下面这些常用的功能：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完全跨平台。
-支持水平布局模式。
-行组件显示或隐藏时可配置回调事件。
-支持单独的头部组件。
-支持单独的尾部组件。
-支持自定义行间分隔线。
-支持下拉刷新。
-支持上拉加载。
-支持跳转到指定行（ScrollToIndex）。
-支持多列布局。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -243,31 +226,6 @@
   </si>
   <si>
     <t>C++ 中智能指针和指针的区别是什么</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过分析 vector 容器的源代码不难发现，它就是使用 3 个迭代器（可以理解成指针）来表示的：
-//_Alloc 表示内存分配器，此参数几乎不需要我们关心
-template &lt;class _Ty, class _Alloc = allocator&lt;_Ty&gt;&gt;
-class vector{
-    ...
-protected:
-    pointer _Myfirst;
-    pointer _Mylast;
-    pointer _Myend;
-};
-其中，_Myfirst 指向的是 vector 容器对象的起始字节位置；_Mylast 指向当前最后一个元素的末尾字节；_myend 指向整个 vector 容器所占用内存空间的末尾字节。
-将 3 个迭代器两两结合，还可以表达不同的含义，例如：
-_Myfirst 和 _Mylast 可以用来表示 vector 容器中目前已被使用的内存空间；
-_Mylast 和 _Myend 可以用来表示 vector 容器目前空闲的内存空间；
-_Myfirst 和 _Myend 可以用表示 vector 容器的容量。
-当 vector 的大小和容量相等（size==capacity）也就是满载时，如果再向其添加元素，那么 vector 就需要扩容。vector 容器扩容的过程需要经历以下 3 步：
-完全弃用现有的内存空间，重新申请更大的内存空间；
-将旧内存空间中的数据，按原有顺序移动到新的内存空间中；
-最后将旧的内存空间释放。
-这也就解释了，为什么 vector 容器在进行扩容后，与其相关的指针、引用以及迭代器可能会失效的原因。
-由此可见，vector 扩容是非常耗时的。为了降低再次分配内存空间时的成本，每次扩容时 vector 都会申请比用户需求量更多的内存空间（这也就是 vector 容量的由来，即 capacity&gt;=size），以便后期使用。
-vector 容器扩容时，不同的编译器申请更多内存空间的量是不同的。以 VS 为例，它会扩容现有容器容量的 50%。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -863,6 +821,145 @@
 stdcall（pascal调用约定）按照c++标准，函数参数从右到左，不支持可变参数，函数返回自动清空。但是有的时候编译器会识别并优化成cdecl。
 Pascal语言中参数就是从左到右入栈的不支持可变长度参数
 （注：__stdcall标记的函数结束后，ret 8表示清理8个字节的堆栈，函数自己恢复了堆栈）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过分析 vector 容器的源代码不难发现，它就是使用 3 个迭代器（可以理解成指针）来表示的：
+//_Alloc 表示内存分配器，此参数几乎不需要我们关心
+template &lt;class _Ty, class _Alloc = allocator&lt;_Ty&gt;&gt;
+class vector{
+    ...
+protected:
+    pointer _Myfirst;
+    pointer _Mylast;
+    pointer _Myend;
+};
+其中，_Myfirst 指向的是 vector 容器对象的起始字节位置；_Mylast 指向当前最后一个元素的末尾字节；_myend 指向整个 vector 容器所占用内存空间的末尾字节。
+将 3 个迭代器两两结合，还可以表达不同的含义，例如：
+_Myfirst 和 _Mylast 可以用来表示 vector 容器中目前已被使用的内存空间；
+_Mylast 和 _Myend 可以用来表示 vector 容器目前空闲的内存空间；
+_Myfirst 和 _Myend 可以用表示 vector 容器的容量。
+当 vector 的大小和容量相等（size==capacity）也就是满载时，如果再向其添加元素，那么 vector 就需要扩容。vector 容器扩容的过程需要经历以下 3 步：
+完全弃用现有的内存空间，重新申请更大的内存空间；
+将旧内存空间中的数据，按原有顺序移动到新的内存空间中；
+最后将旧的内存空间释放。
+这也就解释了，为什么 vector 容器在进行扩容后，与其相关的指针、引用以及迭代器可能会失效的原因。
+由此可见，vector 扩容是非常耗时的。为了降低再次分配内存空间时的成本，每次扩容时 vector 都会申请比用户需求量更多的内存空间（这也就是 vector 容量的由来，即 capacity&gt;=size），以便后期使用。
+vector 容器扩容时，不同的编译器申请更多内存空间的量是不同的。以 VS 为例，它会扩容现有容器容量的 50%。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vector的扩容机制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.vector通过一个连续的数组存放元素，如果集合已满，在新增数据的时候，就要分配一块更大的内存，将原来的数据复制过来，释放之前的内存，再插入新增的元素；
+2.对vector的任何操作，一旦引起空间重新配置，指向原vector的所有迭代器就都失效了；
+3.初始时刻vector的capacity为0，塞入第一个元素后capacity增加为1；
+4.不同的编译器实现的扩容方式不一样，VS2015中以1.5倍扩容，GCC以2倍扩容。之所以要以这类倍增的方式扩容，是因为能将每次插入新元素的平均时间复杂度分摊为O(1)，而如果每次增加1 格空间，时间复杂度将接近O(n)。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚函数的定义及用法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>构造函数和析构函数一般都定义为虚函数嘛？</t>
+  </si>
+  <si>
+    <t>虚函数虚就虚在所谓“推迟联编”或者“动态联编”上，一个类函数的调用并不是在编译时刻被确定的，而是在运行时刻被确定的。由于编写代码的时候并不能确定被调用的是基类的函数还是哪个派生类的函数，所以被称为“虚”函数。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>构造函数不能为虚函数，因为创建一个对象时需要确定对象的类型，而虚函数是在运行时确定其类型的。而在构造一个对象时，由于对象还未创建成功，编译器无法知道对象的实际类型，是类本身还是类的派生类等等；
+而析构函数可以且常常是虚函数。因为如果析构函数不被声明成虚函数，则编译器实施静态绑定，在删除指向子类的父类指针时，只会调用父类的析构函数而不调用子类析构函数，这样就会造成子类对象析构不完全造成内存泄漏。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在程序执行过程中，当所访问的信息不在内存时，由操作系统将「所需要的部分」调入内存,然后继续执行程序。另一方面，操作系统将内存中「暂时不使用的内容」换出到外存上，从而腾出空间存放将要调入内存的信息。这样，系统好像为用户提供了一个比实际内存大得多的存储器，称为虚拟存储器。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说一下虚拟内存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MSL、TTL和RTT的区别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MSL 是Maximum Segment Lifetime英文的缩写，是“报文最大生存时间”，是任何报文在网络上存在的「最长时间」，超过这个时间报文将被丢弃。
+ip头中有一个TTL域，TTL是 time to live的缩写，中文可以译为“生存时间”，这个生存时间是由源主机设置初始值但不是存的具体时间，而是存储了一个ip数据报可以经过的「最大路由数」，每经过一个处理他的路由器此值就减1，当此值为0则数据报将被丢弃，同时发送ICMP报文通知源主机。
+RTT是客户到服务器「往返」所花时间（round-trip time，简称RTT），表示从发送端发送数据开始，到发送端收到来自接收端的确认（接收端收到数据后便立即发送确认），总共经历的时延。TCP含有动态估算RTT的算法。TCP还持续估算一个给定连接的RTT，这是因为RTT受网络传输拥塞程序的变化而变化。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TCP四次挥手中客户端的最后一次挥手为什么要等待两个MSL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等待两个MSL时间主要目的是怕最后一个 ACK包服务器没收到，那么服务器在超时后将重发第三次握手的FIN包，客户端接到重发的FIN包后可以再发一个ACK应答包。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>套接字（Socket）的具体用法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Socket是应用层与TCP/IP协议族通信的中间软件抽象层，它是一组「接口」。在设计模式中，Socket其实就是一个门面模式，它把复杂的TCP/IP协议族隐藏在Socket接口后面，对用户来说，一组简单的接口就是全部，让Socket去组织数据，以符合指定的协议。
+Socket实现服务器端和客户端通信：
+客户端 
+1.创建套接字  
+2.向服务器发送连接请求（connect） 
+3.通信（send/recv) 
+4.关闭套接字 
+服务器
+1.创建用于监听的套接字（socket）
+2.将套接字绑定到本地地址和端口上（bind）
+3.将套接字设为监听模式（listen）
+4.等待客户请求（accept），此处要不断的调用accept
+5.通信（send/receive），完成后返回4
+6.关闭套接字（closesocket）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tcp连接有多少种状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包括了三次握手建立连接和四次挥手断开连接的过程
+1.closed：起始点，tcp连接 超时或关闭时进入此状态
+2.listen：服务端等待连接时的状态，调用Socket、bind、listen函数就能进入此状 态，称为被动打开
+3.SYN-sent：客户端发起连接，发送SYN给服务端，若不能连接进入closed
+4.SYN-rcvd：服务端接受客户端的SYN，由listen进入SYN-rcvd。同时返回一个ACK，并发送一个SYN给服务端。
+特殊情况：客户端发起SYN的同时接收到服务端的SYN，客户端会由SYN-sent转为SYN-rcvd状态
+5.established：可以传输数据的状态
+6.FIN-wait1：主动关闭连接，发送FIN，由established转为此状态
+7.FIN-wait2：主动关闭连接，接收到对方的FIN+ACK，由FIN-wait1转为此状态
+8.close-wait：收到FIN，发送ACK，被动关闭的一方关闭连接进入此状态
+9.last-ACK:发送FIN，同时在接受ACK时，由close-wait进入此状态。被关闭的一方发起关闭请求
+10.closing：两边同时发送关闭请求，由FIN-wait1进入此状态，收到FIN请求，同时响应一个ACK
+11.time-wait：
+FIN-wait2到此状态：双方不同时发送FIN的情况下，主动关闭的一方在完成自己的请求后，收到对方的FIN后的状态
+closeing到此状态：双方同时发起关闭，都发送了FIN，同时接受FIN并发送ACK后的状态
+FIN-wait1到此状态：对方发来的FIN的ACK同时到达后的状态，与上一条的区别是本身发送的FIN回应的ACK先于对方的FIN到达，而上一条是FIN先到达
+客户端独有的：SYN_SENT 、FIN_WAIT1 、FIN_WAIT2 、CLOSING 、TIME_WAIT 。
+服务器独有的：LISTEN、SYN_RCVD 、CLOSE_WAIT、LAST_ACK 。
+共有的：CLOSED、ESTABLISHED 。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>写一个strcpy函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char * strcpy(char *dst,const char *src)   //[1]
+{
+    assert(dst != NULL &amp;&amp; src != NULL);    //[2]
+    char *ret = dst;  //[3]
+    while ((*dst++=*src++)!='\0'); //[4]
+    return ret;
+}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1266,8 +1363,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="46.83203125" defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1278,7 +1375,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1292,10 +1389,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
@@ -1303,10 +1400,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
@@ -1314,10 +1411,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
@@ -1325,10 +1422,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
@@ -1336,10 +1433,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
@@ -1347,10 +1444,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
@@ -1358,10 +1455,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
@@ -1369,10 +1466,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
@@ -1380,10 +1477,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
@@ -1391,10 +1488,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
@@ -1402,30 +1499,54 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="14" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="15" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="16" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
@@ -1521,7 +1642,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1535,10 +1656,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
@@ -1705,7 +1826,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1869,401 +1990,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C30"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="46.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="10" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="46.83203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="3"/>
-    </row>
-    <row r="3" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="C3" s="4"/>
-    </row>
-    <row r="4" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="1">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="1">
-        <v>28</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C30"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="46.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="10" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="46.83203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="1">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="1">
-        <v>28</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C30"/>
   <sheetViews>
@@ -2279,7 +2005,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2309,6 +2035,422 @@
     <row r="5" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="46.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="46.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="46.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="46.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
@@ -2459,7 +2601,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2639,7 +2781,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2653,10 +2795,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
@@ -2664,10 +2806,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
@@ -2675,10 +2817,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
@@ -2686,10 +2828,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
@@ -2697,10 +2839,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
@@ -2708,7 +2850,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
@@ -2716,10 +2858,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
@@ -2727,7 +2869,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
@@ -2735,10 +2877,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
@@ -2746,10 +2888,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
@@ -2757,7 +2899,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
@@ -2765,7 +2907,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
@@ -2773,7 +2915,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
@@ -2781,10 +2923,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
@@ -2792,10 +2934,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
@@ -2803,7 +2945,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
@@ -2811,10 +2953,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
@@ -2822,10 +2964,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
@@ -2833,10 +2975,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
@@ -2912,7 +3054,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -3081,7 +3223,7 @@
   <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="46.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3092,7 +3234,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -3106,10 +3248,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
@@ -3117,10 +3259,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>2</v>
+        <v>81</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>3</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
@@ -3281,7 +3423,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>

--- a/src/pro/pro.xlsx
+++ b/src/pro/pro.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7460" yWindow="760" windowWidth="30160" windowHeight="17640" tabRatio="500"/>
+    <workbookView xWindow="8360" yWindow="1820" windowWidth="30160" windowHeight="17640" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="1.C++" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="173">
   <si>
     <t>title</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -960,6 +960,803 @@
     while ((*dst++=*src++)!='\0'); //[4]
     return ret;
 }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三大主流的Shader Language</t>
+  </si>
+  <si>
+    <t>HLSL:基于Direct3D的 HLSL（High Level Shading Language）
+GLSL:基于OpenGL的GLSL（OpenGL Shading Language，也称为GLslang）
+CG:NVIDIA公司的Cg （C for Graphic）语言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">OpenGL的渲染流程 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读取顶点数据→执行顶点着色器→组装图元→光栅化图元→执行片段着色器→写入帧缓冲区→显示在屏幕上。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光照模型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冯式光照模型：环境光照(Ambient)、漫反射(Diffuse)、镜面(Specular)
+光源：点光、定向光、手电筒（聚光灯）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OpenGL中要用到哪几种Buffer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1)帧缓冲(Frame Buffer)
+帧缓冲是下面几种缓冲的合集。通过帧缓冲可以将你的场景渲染到一个不同的帧缓冲中，可以使我们能够在场景中创建镜子这样的效果，或者做出一些炫酷的特效，存放显示用的数据的。
+(2)颜色缓冲(Color Buffer)
+存储所有片段的颜色：即视觉输出的效果。
+(3)模板缓冲(Stencil Buffer)
+与深度测试类似，通过比较模板值和预设值，决定是否丢弃片段。
+(4)深度缓冲(Depth Buffer)
+根据缓冲的z值，确定哪些面片被遮挡。由GLFW自动生成。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请介绍你所有知道的纹理Alpha混合方式，原理(公式)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>假设一种不透明东西的颜色是A，另一种透明的东西的颜色是B，那么透过B去看A，看上去的颜色C就是B和A的混合颜色，可以用这个式子来近似。
+设B物体的透明度为alpha(取值为0-1，0为完全透明，1为完全不透明)
+R(C)=alpha*R(B)+(1-alpha)*R(A)
+G(C)=alpha*G(B)+(1-alpha)*G(A)
+B(C)=alpha*B(B)+(1-alpha)*B(A)
+R(x)、G(x)、B(x)分别指颜色x的RGB分量。看起来这个东西这么简单，可是用它实现的效果绝对不简单，应用alpha混合技术，可以实现出最眩目的火光、烟雾、阴影、动态光源等等一切你可以想象的出来的半透明效果。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>什么是model，view，project矩阵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>世界矩阵(World Matrix)、视图矩阵(View Matrix)以及投影矩阵(Projection Matirx);
+世界矩阵确定一个统一的世界坐标，用于组织独立的物体形成一个完整的场景;主要针对模型的平移、旋转、缩放、错切等功能，将模型由局部空间转换到世界空间
+视图矩阵就是我们能看到的那部分场景，由虚拟摄像机负责拍摄；摄像机/观察者的位置等信息（设置鼠标移动、滚轮等效果）,将所有世界坐标转换为观察坐标。
+投影矩阵就是3维物体的平面影射.把三维场景在一个二维的平面上显示.裁剪坐标转换到屏幕上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GLSL语言，概念，工作原理,及如何传递数据的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>着色器(shader)是运行在GPU上的小程序，类似于C语言，构造一个着色器在其开头必须声明版本。本质上来说，着色器是一个把输入转化为输出的程序。
+着色器定义了in和out等关键字实现数据的输入和输出，从而实现数据的交流。如果从一个着色器向另一个着色器发送数据，则必须在发送方声明一个输出，在接收方声明一个类似的输入。当类型和名字都相同的时候，便会自动链接在一起，实现数据传递。
+另一种从cpu向gpu发送数据的方式是uniform。uniform是全局的，无需借助其他中介实现数据传递。在着色器程序中声明uniform变量，在主程序中通过glGetUniformLocation获得其地址，从而设置着色器中uniform变量的值。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPU和GPU之间如何调度的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GLSL运行在GPU，其通过接口实现和CPU之间的数据转换。
+opengl程序涉及到两种类型的处理单元--CPU和GPU。opengl主程序由CPU调度运行，图像处理部分通过GLSL交由GPU执行。CPU与GPU之间的数据传递分三个步骤：一，首先利用内置的OpenGL函数生成一个ID号码;二，根据需要对该ID号码进行内存类型的绑定;在经过上面两个步骤之后，GPU中用于接收系统内存中数据的“标识符”就准备好了，第三部对这部分内存进行初始化，初始化的内容来自于系统内存中，这一部分功能利用glBufferData函数完成。
+数据提交到GPU专用的内存中之后，需要根据应用场景对这些数据进行适当的分配。比如，有的数据当做顶点，有的是作为颜色，有的用于控制光照等等
+此外，由于GPU具有高并行结构(heighly parallel structure)，所以GPU在处理图形和复杂算法方面计算效率较高。CPU大部分面积为控制器和寄存器，而GPU拥有更多的ALU(Arithmetric Logic Unit,逻辑运算单云)用于数据处理，而非数据的高速缓存和流控制。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mipmap是怎么回事</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mipmap是多级渐远纹理,也是目前应用最为广泛的纹理映射(map)技术之一。简单来说，就是实现 “实物(图片)看起来近大远小，近处清晰远处模糊”的效果。它简单来说就是一系列的纹理图像，后一个纹理图像是前一个的二分之一。多级渐远纹理背后的理念很简单：距观察者的距离超过一定的阈值，OpenGL会使用不同的多级渐远纹理，即最适合物体的距离的那个。由于距离远，解析度不高也不会被用户注意到。同时，多级渐远纹理另一加分之处是它的性能非常好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>opengl的常用坐标系</t>
+  </si>
+  <si>
+    <t>局部空间(local space):或称为 物体空间.指对象所在的坐标空间
+世界空间(world space):指顶点相对于(游戏)世界的坐标。物体变换到的最终空间就是世界坐标系
+观察空间(view space):观察空间(View Space)经常被人们称之OpenGL的摄像机(Camera)(所以有时也称为摄像机空间(Camera Space)或视觉空间(Eye Space))。观察空间就是将对象的世界空间的坐标转换为观察者视野前面的坐标。因此观察空间就是从摄像机的角度观察到的空间
+裁剪空间(clip sapce):或称为视觉空间.在一个顶点着色器运行的最后，OpenGL期望所有的坐标都能落在一个给定的范围内，且任何在这个范围之外的点都应该被裁剪掉(Clipped)。被裁剪掉的坐标就被忽略了，所以剩下的坐标就将变为屏幕上可见的片段。这也就是裁剪空间(Clip Space)名字的由来。
+屏幕空间(screen space):顾名思义，一般由glViewPort设置。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为什么说opengl是一个状态机</t>
+  </si>
+  <si>
+    <t>首先简单了解一下什么是"状态机"，比如我们使用的电脑，接受各种输入(鼠标，键盘，摄像头等)，然后改变自己当前的状态，但却并不知道状态的改变是如何实现的。opengl类似，接受各种参数，然后参数的改变引起当前状态的改变，达到一种新的状态(如：颜色改变，纹理变化，光照强弱变化)。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示器是二维的，三维数据如何在二维屏幕上显示的。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要是通过图形渲染管线（管线：实际上是指一堆原始图像数据途径一个输送管道，期间经过经过各种变换处理，最终输出在屏幕上的过程）管理的，其被划分为两个过程：1. 把3D坐标转换为2D坐标（主要是通过投影矩阵完成）。 2. 把2D坐标转换为实际有颜色的像素。
+2D坐标和像素是不同的，2D坐标精确表示一个点在空间的位置，而2D像素（好像都是整数）是这个点的近似值，2D像素受到个人屏幕/窗口 分辨率的限制。
+由图可知，传入到片段着色器的颜色值并不是从顶点着色器传入的的，而是：顶点着色阶段（顶点、细分、几何）以及片段着色器之间有个光栅化阶段（光栅化:主要职责是判断屏幕的哪个部分被几何体所覆盖），也就是说传入片段着色器的结果是来自于光栅化的结果。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>透视投影和正投影、opengl摄像机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投影：在计算机图形学中，投影可以看做一种将三维坐标变换为二维坐标的方法。常用的有：正投影和透视投影。
+透视投影：是为了获得接近真实的三维物体效果而在二维平面上绘制、渲染的方法。类似于现实中人对事物的认识（近大远小，远处模糊近期清晰）。
+正投影：正射投影矩阵定义了一个类似立方体的平截头箱，它定义了一个裁剪空间，在这空间之外的顶点都会被裁剪掉。
+摄像机：观察空间经常被人们称之OpenGL的摄像机(Camera)（所以有时也称为摄像机空间(Camera Space)或视觉空间(Eye Space)）。观察空间是将世界空间坐标转化为用户视野前方的坐标而产生的结果。因此观察空间就是从摄像机的视角所观察到的空间。而这通常是由一系列的位移和旋转的组合来完成，平移/旋转场景从而使得特定的对象被变换到摄像机的前方。这些组合在一起的变换通常存储在一个观察矩阵(View Matrix)里，它被用来将世界坐标变换到观察空间。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VBO 和 EBO 、VAO</t>
+  </si>
+  <si>
+    <t>VBO（Vertex Buffer Object）是指顶点缓冲区对象，而 EBO（Element Buffer Object）是指图元索引缓冲区对象，VBO 和 EBO 实际上是对同一类 Buffer 按照用途的不同称呼。
+OpenGL ES 2.0 编程中，用于绘制的顶点数组数据首先保存在 CPU 内存，在调用 glDrawArrays 或者 glDrawElements 等进行绘制时，需要将顶点数组数据从 CPU 内存拷贝到显存。
+但是很多时候我们没必要每次绘制的时候都去进行内存拷贝，如果可以在显存中缓存这些数据，就可以在很大程度上降低内存拷贝带来的开销。
+OpenGL ES 3.0 编程中， VBO 和 EBO 的出现就是为了解决这个问题。
+VBO 和 EBO 的作用是在显存中提前开辟好一块内存，用于缓存顶点数据或者图元索引数据，从而避免每次绘制时的 CPU 与 GPU 之间的内存拷贝，可以改进渲染性能，降低内存带宽和功耗。
+OpenGL ES 3.0 支持两类缓冲区对象：顶点数组缓冲区对象、图元索引缓冲区对象。
+VAO（Vertex Array Object）是指顶点数组对象，主要用于管理 VBO 或 EBO ，减少 glBindBuffer 、glEnableVertexAttribArray、 glVertexAttribPointer 这些调用操作，高效地实现在顶点数组配置之间切换。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OpenGL中怎么传递变量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GLSL语言中的变量有：uniform变量，attribute变量，varying变量
+uniform变量
+uniform变量是外部application程序传递给（vertex和fragment）shader的变量。Qt中它是application通过函数program-&gt;setUniformValue("uniform_name", value_name);赋值的。
+在（vertex和fragment）shader程序内部，uniform变量就像是C语言里面的常量（const ），它不能被shader程序修改。
+attribute变量
+attribute变量是只能在vertex shader中使用的变量。（不能在fragment shader中声明和使用）。
+attribute变量用来表示一些顶点的数据，如：顶点坐标，法线，纹理坐标，顶点颜色等。
+在application中（Qt中），一般用函数void QOpenGLShaderProgram::bindAttributeLocation(const char *name, int location)来绑定每个attribute变量的位置，然后用函数glVertexAttribPointer()为每个attribute变量赋值。
+varying变量
+varying变量是vertex和fragment shader之间做数据传递用的。一般vertex shader修改varying变量的值，然后fragment shader使用该varying变量的值。因此varying变量在vertex和fragment shader二者之间的声明必须是一致的。application不能使用此变量。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>着色器是什么</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>着色器是怎么工作的（管线的处理流程）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>着色器是一种存在于GPU中的程序。它们是可编程的，并允许操作几何和像素颜色。
+不同的着色器（顶点（Vertex）着色器，面片（Fragment）着色器）整体构成了一个管线。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>渲染管线通过几个阶段处理数据，分别为：
+1）基于顶点的操作
+顶点着色器处理顶点，每个顶点由空间矩阵变换，有效地将其3D坐标系统改变为新的坐标系统。就像摄影相机将3D风景转换成2D照片一样。
+2）图元装配
+以指定的顺序连接顶点构建基本体状态
+3）图元处理
+屏幕外面的任何图元都被剪辑并在下一阶段忽略
+4）栅格化
+测试像素是否在图元的边内。如果他们不是，他们被丢弃。如果他们在图元内，他们被带到下一个阶段。通过测试的像素集被称为片段。
+5）片面处理
+将颜色或纹理应用到片段内的像素
+6）基于片段的操作
+片段被提交到几个测试，如：透明度（Alpha）测试，模板（Stencil）测试，深度（Depth）测试等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和服务器的网络交互底层编写，smartfox版本</t>
+    <rPh sb="0" eb="1">
+      <t>he</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>fu'wu'qi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>de</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>wang'luo</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>jiao'hu</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>di'ceng</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>bian'xie</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ban'ben</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用的战场开发整理</t>
+    <rPh sb="0" eb="1">
+      <t>tong'yong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zhan'chagn</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>kai'fa</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>zhegn'li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用排行榜整理</t>
+    <rPh sb="0" eb="1">
+      <t>tong'yogn</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>pai'hagn'bagn</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zhegn'li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用跨服组队协议</t>
+    <rPh sb="0" eb="1">
+      <t>tong'yogn</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>kua'fu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zu'dui</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>xie'yi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COK试玩版小游戏整理</t>
+    <rPh sb="3" eb="4">
+      <t>shi'wan'ban</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>xiao'you'xi</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>zheng'li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AOE项目PVP战斗帧同步和状态同步</t>
+    <rPh sb="3" eb="4">
+      <t>xiang'mu</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zhan'dou</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>zhen'tong'bu</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>he</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>zhuang'tai</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>tong'bu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女仆餐厅小游戏A*算法，寻路算法</t>
+    <rPh sb="0" eb="1">
+      <t>nv'pu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>can'ting</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xiao'you'xi</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>suan'fa</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>xun'lu</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>sua'f'na</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COK联盟对决状态机</t>
+    <rPh sb="3" eb="4">
+      <t>lian'megn</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>dui'jue</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>zhuang'tai'ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COK整体大地图优化，参考乱世王者的优化项</t>
+    <rPh sb="3" eb="4">
+      <t>zheng'ti</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>da'di'tu</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>you'hua</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>can'kao</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>luan'shi'wang'zhe</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>de</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>you'hua</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>xiang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小游戏开发过程中的优化项</t>
+    <rPh sb="0" eb="1">
+      <t>xiao'you'xi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>kaf'ia</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>guo'chegn'zhogn</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>you'hau</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>xiang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cocos引擎的修改和优化</t>
+    <rPh sb="5" eb="6">
+      <t>yin'qing</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>xiu'gai</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>he</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>you'hua</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">AOE项目GM平台开发 </t>
+    <rPh sb="3" eb="4">
+      <t>xiagn'mu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ping'tai</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>kai'fa</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AOE跨平台开发和发包流程</t>
+    <rPh sb="3" eb="4">
+      <t>kua'ping'tai</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>kai'fa</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>he</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>fa'bao</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>liu'cheng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COK热更流程以及资源下载流程</t>
+    <rPh sb="3" eb="4">
+      <t>re'geng</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>liu'cheng</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>yi'ji</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>zi'yuan</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>xia'zai</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>liu'chegn</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女仆餐厅中的动画控制</t>
+    <rPh sb="0" eb="1">
+      <t>nv'pu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>can'ting</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhogn</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>de</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>dong'hua</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>kong'zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女仆餐厅的新手引导</t>
+    <rPh sb="0" eb="1">
+      <t>nv'pu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>can'ting</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>de</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xin'shou</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>yin'dao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怎么判断两个立方体相交</t>
+  </si>
+  <si>
+    <t>AABB和OBB碰撞检测
+AABB包围盒
+在游戏中，为了简化物体之间的碰撞检测运算，通常会对物体创建一个规则的几何外形将其包围。
+其中，AABB（axis-aligned bounding box）包围盒被称为轴对齐包围盒。
+二维场景中的AABB包围盒具备特点
+（1） 表现形式为四边形，即用四边形包围物体。
+（2） 四边形的每一条边，都会与坐标系的轴垂直。
+三维场景中的AABB包围盒特点：
+（1） 表现形式为六面体。
+（2） 六面体中的每条边都平行于一个坐标平面。
+OBB（Oriented Bounding Box）包围盒，也称作有向包围盒。
+可以看出，AABB包围盒与OBB包围盒的最直接的区别就是，AABB包围盒是不可以旋转的，而OBB包围盒是可以旋转的，也就是有向的。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>openGL四种测试</t>
+  </si>
+  <si>
+    <t>OpenGL所提供的四种测试，分别是剪裁测试、Alpha测试、模板测试、深度测试。OpenGL会对每个即将绘制的像素进行以上四种测试，每个像素只有通过一项测试后才会进入下一项测试，而只有通过所有测试的像素才会被绘制，没有通过测试的像素会被丢弃掉，不进行绘制。每种测试都可以单独的开启或者关闭，如果某项测试被关闭，则认为所有像素都可以顺利通过该项测试。
+剪裁测试是指：只有位于指定矩形内部的像素才能通过测试。
+Alpha测试是指：只有Alpha值与设定值相比较，满足特定关系条件的像素才能通过测试。
+模板测试是指：只有像素模板值与设定值相比较，满足特定关系条件的像素才能通过测试。
+深度测试是指：只有像素深度值与新的深度值比较，满足特定关系条件的像素才能通过测试。
+上面所说的特定关系条件可以是大于、小于、等于、大于等于、小于等于、不等于、始终通过、始终不通过这八种。
+模板测试需要模板缓冲区，深度测试需要深度缓冲区。这些缓冲区都是在初始化OpenGL时指定的。如果使用GLUT工具包，则可以在glutInitDisplayMode函数中指定。无论是否开启深度测试，OpenGL在像素被绘制时都会尝试修改像素的深度值；而只有开启模板测试时，OpenGL才会尝试修改像素的模板值，模板测试被关闭时，OpenGL在像素被绘制时也不会修改像素的模板值。
+利用这些测试操作可以控制像素被绘制或不被绘制，从而实现一些特殊效果。利用混合功能可以实现半透明，通过设置也可以实现完全透明，因而可以模拟像素颜色的绘制或不绘制。但注意，这里仅仅是颜色的模拟。OpenGL可以为像素保存颜色、深度值和模板值，利用混合实现透明时，像素颜色不发生变化，但深度值则会可能变化，模板值受glStencilFunc函数中第三个参数影响；利用测试操作实现透明时，像素颜色不发生变化，深度值也不发生变化，模板值受glStencilFunc函数中前两个参数影响。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>判断一个点是否在三角形内</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面积法：若点P在三角形ABC内，则三角形ABP+三角形ACP+三角形BCP的面积等于三角形ABC
+已知三角形三点坐标ABC，如何求三角形面积呢？
+根据叉乘公式，向量A=(x1,y1) ，向量B=(x2,y2)，A x B = x1*y2 - x2*y1
+此时求得的是向量A和向量B的形成的平行四边形的面积，除以2就是三角形的面积了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C++ 构造函数和成员变量初始化顺序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、成员变量在使用初始化列表初始化时，与构造函数中初始化成员列表的顺序无关，只与定义成员变量的顺序有关。因为成员变量的初始化次序是根据变量在内存中次序有关，而内存中的排列顺序早在编译期就根据变量的定义次序决定了。这点在EffectiveC++中有详细介绍。
+2、如果不使用初始化列表初始化，在构造函数内初始化时，此时与成员变量在构造函数中的位置有关。
+3、注意：类成员在定义时，是不能初始化的
+4、注意：类中const成员常量必须在构造函数初始化列表中初始化。
+5、注意：类中static成员变量，必须在类外初始化。
+6、静态变量进行初始化顺序是基类的静态变量先初始化，然后是它的派生类。直到所有的静态变量都被初始化。这里需要注意全局变量和静态变量的初始化是不分次序的。这也不难理解，其实静态变量和全局变量都被放在公共内存区。可以把静态变量理解为带有“作用域”的全局变量。在一切初始化工作结束后，main函数会被调用，如果某个类的构造函数被执行，那么首先基类的成员变量会被初始化。 
+变量的初始化顺序就应该是：
+1 基类的静态变量或全局变量
+2 派生类的静态变量或全局变量
+3 基类的成员变量
+4 派生类的成员变量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完整的A*算法描述如下：
+* 初始化open_set和close_set；
+* 将起点加入open_set中，并设置优先级为0（优先级最高）；
+* 如果open_set不为空，则从open_set中选取优先级最高的节点n：
+    * 如果节点n为终点，则：
+        * 从终点开始逐步追踪parent节点，一直达到起点；
+        * 返回找到的结果路径，算法结束；
+    * 如果节点n不是终点，则：
+        * 将节点n从open_set中删除，并加入close_set中；
+        * 遍历节点n所有的邻近节点：
+            * 如果邻近节点m在close_set中，则：
+                * 跳过，选取下一个邻近节点
+            * 如果邻近节点m也不在open_set中，则：
+                * 设置节点m的parent为节点n
+                * 计算节点m的优先级
+                * 将节点m加入open_set中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冒泡排序</t>
+  </si>
+  <si>
+    <t>比较两个记录键值的大小，如果这两个记录键值的大小出现逆序，则交换这两个记录
+function bubbleSort(arr){
+    for(let i = 1;i &lt; arr.length;i++){
+        for(let j = i;j &gt; 0;j--){
+            if(arr[j] &lt; arr[j-1]){
+                [arr[j],arr[j-1]] = [arr[j-1],arr[j]];
+            }
+        }
+    }
+    return arr;
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快排</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在n个记录中取某一个记录的键值为标准，通常取第一个记录键值为基准，通过一趟排序将待排的记录分为小于或等于这个键值的两个独立的部分，这是一部分的记录键值均比另一部分记录的键值小，然后，对这两部分记录继续分别进行快速排序，以达到整个序列有序
+function quickSort(arr){
+    if(arr.length &lt;= 1) return arr;
+    let right = [],left = [],keys = arr.shift();
+    for(let value of arr){
+        if(value &gt; keys){
+            right.push(value)
+        }else{
+            left.push(value);
+        }
+    }
+    return quickSort(left).concat(keys,quickSort(right));
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>插入排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第i（i大于等于1）个记录进行插入操作时，R1、 R2，...，是排好序的有序数列，取出第i个元素，在序列中找到一个合适的位置并将她插入到该位置上即可。
+function insertSort(arr){
+    for(let i = 1;i &lt; arr.length;i++){
+        let j = i-1;
+        if(arr[i]&lt;arr[j]){
+            let temp = arr[i];
+            while(j &gt;= 0 &amp;&amp; temp &lt; arr[j]){
+                arr[j+1] = arr[j];
+                j--;
+            }
+            arr[j+1] = temp;
+        }
+    }
+    return arr;
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>希尔排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>算法先将要排序的一组数按某个增量d（n/2,n为要排序数的个数）分成若干组，每组中记录的下标相差d.对每组中全部元素进行直接插入排序，然后再用一个较小的增量（d/2）对它进行分组，在每组中再进行直接插入排序。当增量减到1时，进行直接插入排序后，排序完成。
+function hillSort(arr){
+    let len = arr.length;
+    for(let gap = parseInt(len &gt;&gt; 1);gap &gt;= 1;gap = parseInt(gap &gt;&gt; 1)){
+        for(let i = gap;i &lt; len;i++){
+            if(arr[i] &lt; arr[i-gap]){
+                let temp = arr[i];
+                let j = i - gap;
+                while(j &gt;= 0 &amp;&amp; arr[j] &gt; temp){
+                    arr[j+gap] = arr[j];
+                    j -= gap;
+                }
+                arr[j+gap] = temp;
+            }
+        }
+    }
+    return arr;
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在第i次选择操作中，通过n-i次键值间比较，从n-i+1个记录中选出键值最小的记录，并和第i（1小于等于1小于等于n-1）个记录交换
+function selectSort(arr){
+    for(let i = 0;i &lt; arr.length;i++){
+        let min = Math.min(...arr.slice(i));
+        let index = arr.indexOf(min);
+        [arr[i],arr[index]] = [arr[index],arr[i]];
+    }
+    return arr;
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>堆排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>function adjustMaxHeap(heap,head,heapSize){
+    let temp = heap[head];
+    let child = head * 2 + 1;
+    while(child &lt; heapSize){
+        if(child+1 &lt; heapSize &amp;&amp; heap[child] &lt; heap[child+1]) child++;
+        if(heap[head] &lt; heap[child]){
+            heap[head] = heap[child];
+            head = child;
+            child = head * 2 + 1;
+        }else break;
+        heap[head] = temp;
+    }
+}
+function buildHeap(heap){
+    for(let i = (heap.length-1) &gt;&gt; 1;i &gt;= 0;i--){
+        adjustMaxHeap(heap,i,heap.length);
+    }
+}
+function heapSort(arr){
+    buildHeap(arr);
+    for(let i = arr.length-1;i &gt; 0;i--){
+        [arr[i],arr[0]] = [arr[0],arr[i]];
+        adjustMaxHeap(arr,0,i);
+    }
+    return arr;
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>归并排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>把一个有n个记录的无序文件看成是由n个长度为1的有序子文件组成的文件，然后进行两两归并
+function MergeSort(arr,left,right){
+    if(left &gt;= right) return;
+    let mid = Math.floor((right - left) &gt;&gt; 1) + left;
+    MergeSort(arr,left,mid);
+    MergeSort(arr,mid+1,right);
+    Merge(arr,left,mid,right);
+    return arr;
+}
+function Merge(arr,left,mid,right){
+    let temp = [],i = 0;
+    let p1 = left,p2 = mid + 1;
+    while(p1 &lt;= mid &amp;&amp; p2 &lt;= right){
+        arr[p1] &lt;= arr[p2] ? temp[i++] = arr[p1++] : temp[i++] = arr[p2++];
+    }
+    while(p1 &lt;= mid){
+        temp[i++] = arr[p1++];
+    }
+    while(p2 &lt;= right){
+        temp[i++] = arr[p2++];
+    }
+    for(let i = 0;i &lt; temp.length;i++){
+        arr[i+left] = temp[i];
+    }
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桶排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>把数据分组，放在一个个的桶中，然后对每个桶里面的在进行排序
+function radixSort(arr,arrDomain,gropSize){
+    let data = [];
+    for(let i = 0;i &lt; arr.length;i++) data.push([]);
+    console.log(data)
+    for(let i = 0;i &lt; arr.length;i++){
+        data[Math.floor(parseInt(arr[i] / gropSize)) + 1].push(arr[i]);
+    }
+    for(let i = 0;i &lt; data.length;i++){
+        quickSort(data[i]);
+    }
+    return data.flat(Infinity);
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统自带排序实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每个语言的排序内部实现都是不同的。
+对于 JS 来说，数组长度大于 10 会采用快排，否则使用插入排序。选择插入排序是因为虽然时间复杂度很差，但是在数据 量很小的情况下和 O(N * logN) 相差无几，然而插入排序需要的常数时间很小，所以相对别的排序来说更快。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序稳定性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稳定性的意思就是对于相同值来说，相对顺序不能改变。通俗的讲有两个相同的数 A 和 B，在排序之前 A 在 B 的前面， 而经过排序之后，B 跑到了 A 的前面，对于这种情况的发生，我们管他叫做排序的不稳定性。
+稳定性有什么意义？个人理解对于前端来说，比如我们熟知框架中的虚拟 DOM 的比较，我们对一个``列表进行渲染， 当数据改变后需要比较变化时，不稳定排序或操作将会使本身不需要变化的东西变化，导致重新渲染，带来性能的损耗。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序面试题目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快速排序在完全无序的情况下效果最好，时间复杂度为O(nlogn)，在有序情况下效果最差，时间复杂度为O(n^2)。
+外部排序常用的算法是归并排序。
+数组元素基本有序的情况下，插入排序效果最好，因为这样只需要比较大小，不需要移动，时间复杂度趋近于O(n)。
+如果只想得到1000个元素组成的序列中第5个最小元素之前的部分排序的序列，用堆排序方法最快。
+对长度为 n 的线性表作快速排序，在最坏情况下，比较次数为 n(n-1)/2。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1363,8 +2160,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="46.83203125" defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1549,72 +2346,78 @@
         <v>91</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1630,8 +2433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="46.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1666,139 +2469,189 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="C3" s="4"/>
+      <c r="B3" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="4" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4" s="1" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="5" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5" s="1" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="6" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6" s="1" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="7" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7" s="1" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="8" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8" s="1" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="9" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9" s="1" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="10" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10" s="1" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="11" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11" s="1" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="12" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12" s="1" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="13" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13" s="1" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="14" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14" s="1" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="15" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15" s="1" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="16" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1814,8 +2667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="46.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1839,146 +2692,263 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="3"/>
+      <c r="B2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="3" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="C3" s="4"/>
+      <c r="B3" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="4" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="5" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="6" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="7" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="8" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="9" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="10" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="11" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="12" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="13" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="14" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="15" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="16" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -2769,8 +3739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="46.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3042,8 +4012,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="46.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3067,58 +4037,121 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="3"/>
+      <c r="B2" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="3" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="C3" s="4"/>
+      <c r="B3" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="4" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="5" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="6" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="7" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="8" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="9" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="10" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="11" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="12" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">

--- a/src/pro/pro.xlsx
+++ b/src/pro/pro.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8360" yWindow="1820" windowWidth="30160" windowHeight="17640" tabRatio="500"/>
+    <workbookView xWindow="3100" yWindow="1660" windowWidth="30160" windowHeight="17640" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="1.C++" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="209">
   <si>
     <t>title</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1757,6 +1757,427 @@
 数组元素基本有序的情况下，插入排序效果最好，因为这样只需要比较大小，不需要移动，时间复杂度趋近于O(n)。
 如果只想得到1000个元素组成的序列中第5个最小元素之前的部分排序的序列，用堆排序方法最快。
 对长度为 n 的线性表作快速排序，在最坏情况下，比较次数为 n(n-1)/2。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMMONJS和ES6的区别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CommonJS 模块输出的是一个值的拷贝，ES6 模块输出的是值的引用。
+CommonJS 模块是运行时加载，ES6 模块是编译时输出接口。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>require和import区别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区别1：模块加载的时间
+require：运行时加载
+import：编译时加载（效率更高）【由于是编译时加载，所以import命令会提升到整个模块的头部】
+test();
+import { test} from '/test';
+上面的代码不会报错，正常执行
+区别2：模块的本质
+require：模块就是对象，输入时必须查找对象属性
+import：ES6 模块不是对象，而是通过 export 命令显式指定输出的代码，再通过 import 命令输入（这也导致了没法引用 ES6 模块本身，因为它不是对象）。由于 ES6 模块是编译时加载，使得静态分析成为可能。有了它，就能进一步拓宽 JavaScript 的语法，比如引入宏（macro）和类型检验（type system）这些只能靠静态分析实现的功能。
+// CommonJS模块
+let { exists, readFile } = require('fs');
+// 等同于
+let fs = require('fs');
+let exists = fs.exists;
+let readfile = fs.readfile;
+上面CommonJs模块中，实质上整体加载了fs对象（fs模块），然后再从fs对象上读取方法
+// ES6模块
+import { exists, readFile } from 'fs';
+上面ES6模块，实质上从fs模块加载2个对应的方法，其他方法不加载
+区别3：严格模式
+CommonJs模块和ES6模块的区别：
+（1）CommonJs模块默认采用非严格模式
+（2）ES6 的模块自动采用严格模式，不管你有没有在模块头部加上 “use strict”;
+（3）CommonJS 模块输出的是一个值的拷贝，ES6 模块输出的是值的引用，举例如下
+// m1.js
+export var foo = 'bar';
+setTimeout(() =&gt; foo = 'baz', 500);
+// m2.js
+import {foo} from './m1.js';
+console.log(foo); //bar
+setTimeout(() =&gt; console.log(foo), 500); //baz
+ES6 模块之中，顶层的 this 指向 undefined ，即不应该在顶层代码使用 this</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C++ typedef typename 作用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>typedef typename std::vector&lt;T&gt;::size_type size_type;
+vector::size_type源码
+template &lt;class T,class Alloc=alloc&gt;
+class vector{
+public:
+    //...
+    typedef size_t size_type;
+    //...
+};
+vector::size_type是vector的嵌套类型定义，其实际等价于 size_t类型。
+实际上，模板类型在实例化之前，编译器并不知道vector&lt;T&gt;::size_type是什么东西，事实上一共有三种可能：
+静态数据成员
+静态成员函数
+嵌套类型
+那么此时typename的作用就在此时体现出来了——定义就不再模棱两可。
+语句的真是面目是：
+typedef创建了存在类型的别名，而typename告诉编译器std::vector&lt;T&gt;::size_type是一个类型而不是一个成员。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模版的完全特化与偏特化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模版特化：任何针对模版参数进一步进行条件限制设计的特化版本。 &lt;&lt;泛型思维&gt;&gt;
+完全特化：针对所有的模版参数进行特化。 &lt;&lt;c++ primer&gt;&gt;
+模板分为类模板与函数模板，特化分为全特化与偏特化。全特化就是限定死模板实现的具体类型，偏特化就是如果这个模板有多个类型，那么只限定其中的一部分。
+举例如下：
+template&lt;class T,class N&gt; 
+class Template{}; 
+全特化:
+template&lt;&gt; 
+class Template&lt;int,char&gt;{};
+偏特化：
+template&lt;class T&gt; 
+class Template&lt;T,int&gt;{};
+注意：函数模版不存在偏特化，只有类模版才能偏特化
+#include &lt;iostream&gt;
+using namespace std;
+template&lt;typename T, typename N&gt;
+class Test
+{
+public:
+    Test( T i, N j ) : a(i), b(j)
+    {
+        cout&lt;&lt;"普通模板类"&lt;&lt; a &lt;&lt;' ' &lt;&lt; b &lt;&lt; endl;
+    }
+private:
+    T a;
+    N b;
+};
+template&lt;&gt;
+class Test&lt;int , char&gt;
+{
+public:
+    Test( int i, char j ) : a( i ), b( j )
+    {
+        cout&lt;&lt;"模版类全特化"&lt;&lt; a  &lt;&lt; ' ' &lt;&lt; b &lt;&lt; endl;
+    }
+private:
+    int a;
+    char b;
+};
+template &lt;typename N&gt;
+class Test&lt;char, N&gt;
+{
+public:
+    Test( char i, N j ):a( i ), b( j )
+    {
+        cout&lt;&lt;"模版类偏特化"&lt;&lt; a&lt;&lt; ' ' &lt;&lt; b &lt;&lt; endl;
+    }
+private:
+    char a;
+    N b;
+};
+//模板函数  
+    template&lt;typename T1, typename T2&gt;  
+void fun(T1 a , T2 b)  
+{  
+    cout&lt;&lt;"模板函数"&lt;&lt;endl;  
+}  
+//模版函数全特化  
+template&lt;&gt;  
+void fun&lt;int ,char &gt;(int a, char b)  
+{  
+    cout&lt;&lt;"模版函数全特化"&lt;&lt;endl;  
+}  
+//函数不存在偏特化：下面的代码是错误的  
+// template&lt;typename T2&gt; 
+// void fun&lt;char,T2&gt;(char a, T2 b) 
+// { 
+//     cout&lt;&lt;"模版函数偏特化"&lt;&lt;endl; 
+// } 
+int main()
+{
+    Test&lt;double , double&gt; t1( 0.1,0.2 );   //普通模版类
+    Test&lt;int , char&gt; t2( 1, 'A' );   //模版类完全特化
+    Test&lt;char, bool&gt; t3( 'A', true );  //模版类偏特化
+    return 0;
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谈谈Promise</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Promise 是一种异步编程的解决方案，可以认为它是一个容器，里面保存着未来发生的事件结果。 它有三种状态：pending（进行中）、fulfilled（已成功）和rejected（已失败），状态一旦发生改变就不能再次改变。
+回调地狱了，带来的负面影响也是不言而喻的：
+代码臃肿，可读性差
+耦合程度高，可维护性差
+只能在回调函数内部处理异常
+Promise 用then处理回调</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Promise 有什么不足吗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Promise 的链式调用可以让代码变得更加直观，虽然相对看起来逻辑清晰点，但依然还是存在then调用链，有代码冗余的问题，还存在以下的不足：
+无法取消Promise,一旦新建它就会立即执行，无法中途取消。
+如果不设置回调函数，promise内部抛出的错误，不会反应到外部。
+当处于pending状态时，无法得知目前进展到哪一个阶段（刚刚开始还是即将完成）。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>除了 Promise 还有其他异步解决方案吗？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还可以用 ES6 中的 Generator 来处理，Generator 的执行有点类似于传统编程语言的协程。协程的执行步骤大致如：
+协程A开始执行，执行到需要被挂起的地方
+协程A暂停，执行权交给协程B
+协程B执行完后，把执行权还给协程A
+协程A恢复执行，返回结果
+Javascript 中的异步任务就类似于上述的协程A，分成两段（或多段）执行。
+Generator 和 Promise 类似，都可以认为是一个容器，不同之处在于 Generator 的容器是用来装异步任务的而不是状态。在需要异步操作的地方，使用 yield 交出控制权即可，使用next方法则可以夺回控制权，恢复执行，且next方法的参数可以作为上一个yield表达式的返回值。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>async/await有了解吗？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>async 函数是什么？简单来说，它就是Generator函数的语法糖。Generator 的用法还是有点晦涩难懂的，用起来总感觉有点复杂，所以 ES7 中推出了 async/await。语法其实也是和 Generator 类似，只是将*换成async，yield 换成await。不过Generator返回的是一个迭代器，而async/await返回的则是一个Promise对象，也就意味着可以使用then、 catch等方法了。
+Generator函数的执行依赖执行器。而async函数自带执行器，将 Generator 函数和自动执行器，包装在一个函数里，所以它不需要使用next方法来逐步控制函数的执行，和普通函数的调用是一致的。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>协程和线程对比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>协程和线程相比，有三个比较明显的优势。
+1、减少了线程切换的成本。Java 中的线程，不管是创建还是切换，都需要较高的成本。子程序切换不是线程切换，而是由程序自身控制，因此，没有线程切换的开销，和多线程比，线程数量越多，协程的性能优势就越明显。这也就是说，协程的效率比较高。
+2、协程的第二大优势就是，不需要多线程的锁机制，因为只有一个线程，也不存在同时写变量冲突，在协程中控制共享资源不加锁，只需要判断状态就好了，所以执行效率比多线程高很多。
+3、协程更轻量级。创建一个线程栈大概需要 1M 左右，而协程栈大概只需要几 K 或者几十 K。
+有优势也有劣势，因为前面的程序看起来在“上串下跳”，所以，协程看起来也没那么好控制。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进程、协程、线程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1、进程
+进程是具有一定独立功能的程序关于某个数据集合上的一次运行活动,进程是系统进行资源分配和调度的一个独立单位。每个进程都有自己的独立内存空间，不同进程通过进程间通信来通信。由于进程比较重量，占据独立的内存，所以上下文进程间的切换开销（栈、寄存器、虚拟内存、文件句柄等）比较大，但相对比较稳定安全。
+2、线程
+线程是指进程内的一个执行单元,也是进程内的可调度实体。线程是进程的一个实体,是CPU调度和分派的基本单位,它是比进程更小的能独立运行的基本单位。线程自己基本上不拥有系统资源,只拥有一点在运行中必不可少的资源(如程序计数器,一组寄存器和栈)，但是它可与同属一个进程的其他的线程共享进程所拥有的全部资源。线程间通信主要通过共享内存，上下文切换很快，资源开销较少，但相比进程不够稳定容易丢失数据。
+3、协程
+协程是一种用户态的轻量级线程，协程的调度完全由用户控制。从技术的角度来说，“协程就是你可以暂停执行的函数”。协程拥有自己的寄存器上下文和栈。协程调度切换时，将寄存器上下文和栈保存到其他地方，在切回来的时候，恢复先前保存的寄存器上下文和栈，直接操作栈则基本没有内核切换的开销，可以不加锁的访问全局变量，所以上下文的切换非常快。
+线程与进程的区别:
+1) 地址空间:线程是进程内的一个执行单元，进程内至少有一个线程，它们共享进程的地址空间，而进程有自己独立的地址空间
+2) 资源拥有:进程是资源分配和拥有的单位,同一个进程内的线程共享进程的资源
+3) 线程是处理器调度的基本单位,但进程不是
+4) 二者均可并发执行
+5) 每个独立的线程有一个程序运行的入口、顺序执行序列和程序的出口，但是线程不能够独立执行，必须依存在应用程序中，由应用程序提供多个线程执行控制
+协程与线程的区别:
+1) 一个线程可以多个协程，一个进程也可以单独拥有多个协程。
+2) 线程进程都是同步机制，而协程则是异步。
+3) 协程能保留上一次调用时的状态，每次过程重入时，就相当于进入上一次调用的状态。
+4）线程是抢占式，而协程是非抢占式的，所以需要用户自己释放使用权来切换到其他协程，因此同一时间其实只有一个协程拥有运行权，相当于单线程的能力。
+5）协程并不是取代线程, 而且抽象于线程之上, 线程是被分割的CPU资源, 协程是组织好的代码流程, 协程需要线程来承载运行, 线程是协程的资源, 但协程不会直接使用线程, 协程直接利用的是执行器(Interceptor), 执行器可以关联任意线程或线程池, 可以使当前线程, UI线程, 或新建新程.。
+6）线程是协程的资源。协程通过Interceptor来间接使用线程这个资源。
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全局变量、static全局变量、全局常量使用方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.全局变量的使用条件是，在.cpp文件中定义并初始化
+int g_nvalue = 9;
+使用时，并不需要添加什么头文件，直接在要使用全局变量的.cpp中声明：
+extern int g_nvalue;
+特殊类型：const全局变量
+const在c中默认是外链接，而在c++中默认是内链接
+如:在.cpp中定义:
+const int g_nvalue = 9;
+那么在另一个.cpp中使用它，这样声明：
+extern const int g_nvalue;
+编译时出错：提示找不到g_navalue
+方法1：c++定义的const全局变量作用域既然域static一样，那么可以采用添加.h文件的方法，如：
+添加global.h文件，里面添加：
+extern const int g_nvalue;
+然后原来的定义const全局变量的.cpp中添加global.h，在要使用这个变量的.cpp中添加global.h,这样就可以使用const变量了
+方法2：通过添加extern使const全局变量强制外链接
+.cpp中定义时同时添加extern:
+extern const int g_nvalue = 9;
+使用它的.cpp中声明：
+extern const int g_nvalue;
+然后就可以使用了
+2.static全局变量
+static全局变量的作用域是定义的源文件，只被初始化一次，使用格式如下：
+在使用的.cpp文件中加入：
+static int g_snValue = 9;
+由于它只定义的文件中起作用，所以使用也只能在定义的.cpp文件中
+static全局变量定义在.h中，通过.cpp访问的是该值的拷贝，即会单独分配一块内存，并将该值拷贝一份，.cpp中所做的任何更改都不会对原值造成任何影响，所以static全局变量一般定义在.cpp中，防止造成信息污染，任何外部想访问值的内容，可以通过在.h中添加新的函数，获取.cpp的静态值的内容即可
+3.全局常量
+1)const单独使用时，其特性与static一样（每个编译单元中地址都不一样，不过因为是常量，也不能修改，所以就没有多大关系）
+2)在c++中const默认是内链接，即在全局内定义的const全局变量默认是内链接，作用域在本文件，并不是全局可见的，即局部变量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>extern “C”的作用详解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>extern "C"的主要作用就是为了能够正确实现C++代码调用其他C语言代码。加上extern "C"后，会指示编译器这部分代码按C语言（而不是C++）的方式进行编译。由于C++支持函数重载，因此编译器编译函数的过程中会将函数的参数类型也加到编译后的代码中，而不仅仅是函数名；而C语言并不支持函数重载，因此编译C语言代码的函数时不会带上函数的参数类型，一般只包括函数名。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C++11 最常用的新特性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>auto关键字：编译器可以根据初始值自动推导出类型。但是不能用于函数传参以及数组类型的推导
+nullptr关键字：nullptr是一种特殊类型的字面值，它可以被转换成任意其它的指针类型；而NULL一般被宏定义为0，在遇到重载时可能会出现问题。
+智能指针：C++11新增了std::shared_ptr、std::weak_ptr等类型的智能指针，用于解决内存管理的问题。
+初始化列表：使用初始化列表来对类进行初始化
+右值引用：基于右值引用可以实现移动语义和完美转发，消除两个对象交互时不必要的对象拷贝，节省运算存储资源，提高效率
+atomic原子操作用于多线程资源互斥操作
+新增STL容器array以及tuple</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C++在什么情况下会发生拷贝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//1. 你自定义的类通过按值传递传给一个函数
+void MyFunc(MyClass myclass); //调用这个函数会调用拷贝构造函数
+//2. 你想通过已有的类的一个对象来创建另一个对象
+MyClass myclass1;
+MyClass myclass2(myclass1);//这里会调用拷贝构造函数
+//3. 当你用到容器（例如vector&lt;MyClass&gt;）需要向容器中增加元素的时候
+vector&lt;MyClass&gt; v;
+MyClass myclass;
+v.push_back(myclass); //这里调用拷贝构造函数
+//4. 当对象作为函数的返回值时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C++内存分区有哪些</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在C++中，内存分为5个区，从上到下依次是栈、堆、自由存储区、全局/静态存储区和常量存储区。
+1、栈
+编译器在需要的时候分配，在不需要的时候自动清除的变量存储区。里面的变量通常是局部变量、函数参数等。
+2、堆
+由new分配的内存块，他们的释放编译器不去管，由应用程序区控制，一般一个new就要对应一个delete。如果程序员没有释放掉，那么程序结束后，操作系统自动回收。
+3、自由存储区
+由malloc等分配的内存块，他和堆是十分相似的，不过它是用free来结束自己的生命的。
+4、全局/静态存储区
+全局变量和静态变量被分配到同一块内存中，在以前的c语言中，全局变量又分为初始化的和未初始化的，在C++里面没有这个区分了，他们共同占用同一块内存区。
+5、常量存储区
+这是一块比较特殊的存储区，他们里面存放的是常量，不允许修改。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sizeof和strlen的区别</t>
+  </si>
+  <si>
+    <t>sizeof
+sizeof用于计算分配的数组空间大小，不关心里面存了多少数据；
+对于指针，sizeof操作符返回这个指针占的空间，一般是4个字节；
+对于数组，sizeof返回这个数组所有元素占的总空间。char*与char[]容易混淆，一定要分清，而且char*="aaa"的写法现在不被提倡，应予以避免
+strlen(只计算char*字符串的长度)
+strlen不区分是数组还是指针，就读到\0为止返回长度。而且strlen是不把\0计入字符串的长度的。
+strlen只计算char*字符串的长度，以\0'为字符串结束标记关心存储的数据内容，不关心每个字符所占空间的大小和类型。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C++所有的构造函数包括哪些</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//无参数构造函数
+// 如果创建一个类你没有写任何构造函数,则系统会自动生成默认的无参构造函数，函数为空，什么都不做
+ // 只要你写了一个下面的某一种构造函数，系统就不会再自动生成这样一个默认的构造函数，如果希望有一个这样的无参构造函数，则需要自己显示地写出来
+ Complex(void)
+ {
+      m_real = 0.0;
+      m_imag = 0.0;
+ } 
+ //    一般构造函数（也称重载构造函数）
+ // 一般构造函数可以有各种参数形式,一个类可以有多个一般构造函数，前提是参数的个数或者类型不同（基于c++的重载函数原理）
+ // 例如：你还可以写一个 Complex( int num)的构造函数出来
+ // 创建对象时根据传入的参数不同调用不同的构造函数
+ Complex(double real, double imag)
+ {
+      m_real = real;
+      m_imag = imag;         
+  }
+ //    复制构造函数（也称为拷贝构造函数）
+ //    复制构造函数参数为类对象本身的引用，用于根据一个已存在的对象复制出一个新的该类的对象，一般在函数中会将已存在对象的数据成员的值复制一份到新创建的对象中
+ //    若没有显示的写复制构造函数，则系统会默认创建一个复制构造函数，但当类中有指针成员时，由系统默认创建该复制构造函数会存在风险，具体原因请查询 有关 “浅拷贝” 、“深拷贝”的文章论述
+ Complex(const Complex &amp; c)
+ {
+         // 将对象c中的数据成员值复制过来
+         m_real = c.m_real;
+         m_img    = c.m_img;
+ }            
+ // 类型转换构造函数，根据一个指定的类型的对象创建一个本类的对象
+ // 例如：下面将根据一个double类型的对象创建了一个Complex对象
+ Complex::Complex(double r)
+ {
+         m_real = r;
+         m_imag = 0.0;
+ }
+ // 等号运算符重载
+ // 注意，这个类似复制构造函数，将=右边的本类对象的值复制给等号左边的对象，它不属于构造函数，等号左右两边的对象必须已经被创建
+ // 若没有显示的写=运算符重载，则系统也会创建一个默认的=运算符重载，只做一些基本的拷贝工作
+ Complex &amp;operator=( const Complex &amp;rhs )
+ {
+         // 首先检测等号右边的是否就是左边的对象本，若是本对象本身,则直接返回
+         if ( this == &amp;rhs ) 
+         {
+                 return *this;
+         }
+         // 复制等号右边的成员到左边的对象中
+         this-&gt;m_real = rhs.m_real;
+         this-&gt;m_imag = rhs.m_imag;
+        // 把等号左边的对象再次传出
+        // 目的是为了支持连等 eg:    a=b=c 系统首先运行 b=c
+        // 然后运行 a= ( b=c的返回值,这里应该是复制c值后的b对象)    
+         return *this;
+ }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C++ 深拷贝与浅拷贝区别</t>
+  </si>
+  <si>
+    <t>深拷贝和浅拷贝最根本的区别在于是否真正获取一个对象的复制实体，而不是引用。
+假设B复制了A，修改A的时候，看B是否发生变化：
+如果B跟着也变了，说明是浅拷贝，拿人手短！（修改堆内存中的同一个值）
+如果B没有改变，说明是深拷贝，自食其力！（修改堆内存中的不同的值）
+浅拷贝（shallowCopy）只是增加了一个指针指向已存在的内存地址，
+深拷贝（deepCopy）是增加了一个指针并且申请了一个新的内存，使这个增加的指针指向这个新的内存，
+使用深拷贝的情况下，释放内存的时候不会因为出现浅拷贝时释放同一个内存的错误。
+浅复制：仅仅是指向被复制的内存地址，如果原地址发生改变，那么浅复制出来的对象也会相应的改变。
+深复制：在计算机中开辟一块新的内存地址用于存放复制的对象。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2160,8 +2581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="46.83203125" defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2361,50 +2782,110 @@
       <c r="A18" s="1">
         <v>16</v>
       </c>
+      <c r="B18" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="19" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>17</v>
       </c>
+      <c r="B19" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="20" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>18</v>
       </c>
+      <c r="B20" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="21" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>19</v>
       </c>
+      <c r="B21" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="22" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>20</v>
       </c>
+      <c r="B22" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="23" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>21</v>
       </c>
+      <c r="B23" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="24" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>22</v>
       </c>
+      <c r="B24" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="25" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>23</v>
       </c>
+      <c r="B25" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="26" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>24</v>
       </c>
+      <c r="B26" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="27" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>25</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
@@ -2667,8 +3148,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="46.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2964,7 +3445,7 @@
   <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="46.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2988,43 +3469,88 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="3"/>
+      <c r="B2" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="3" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="C3" s="4"/>
+      <c r="B3" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="4" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="5" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="6" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="7" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="8" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="9" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
